--- a/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
+++ b/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Quartiles, the IQR, and Percentiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE38B65-AC45-4BF4-BDF2-C4EA26C0A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A63C95-2BBE-4881-8DFD-FF3409DCE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Classifying data'!$A$1:$B$423</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$423</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2513,7 +2517,114 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Frequency distribution weight</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Frequency distribution weight</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{717D51E2-6318-483C-A22F-416D7514D6AC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Weight</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3068,6 +3179,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3079,9 +3698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3118,7 +3737,85 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2952750" y="1446609"/>
-              <a:ext cx="2214562" cy="2743200"/>
+              <a:ext cx="2274094" cy="2244328"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>303609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C1BAE2-3CCD-4790-8DC3-20B10EA0EBCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5381625" y="1446609"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13598,8 +14295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7316473-FC0A-4C63-BA86-386CFCDD993B}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
+++ b/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Quartiles, the IQR, and Percentiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A63C95-2BBE-4881-8DFD-FF3409DCE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E2FBC-7BB6-4F36-B8D2-391B89E96821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,14 +26,26 @@
     <definedName name="_xlchart.v1.1" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$423</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="492">
   <si>
     <t>Name</t>
   </si>
@@ -1534,6 +1546,21 @@
   </si>
   <si>
     <t>Lower Out Q1-Out</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>Upper Outlier</t>
+  </si>
+  <si>
+    <t>Lower Outlier</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -2584,6 +2611,141 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Points scored</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Points scored</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C929FA82-D055-474B-8B70-ED836EC09034}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>PTS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Points scored</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Points scored</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{52D98E66-5F03-4ADE-BEA4-CAB9B5D505F5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>PTS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2625,6 +2787,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3687,6 +3929,1029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3849,6 +5114,167 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189309</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01D1A5C-8036-40E4-8079-A7065F34BDCD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5893594" y="1375172"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577453</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136921</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7A93A4-9630-4F79-99A6-88A3DF290D22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2250281" y="1375172"/>
+              <a:ext cx="3006328" cy="2500312"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14295,7 +15721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7316473-FC0A-4C63-BA86-386CFCDD993B}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -14471,10 +15897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A25B489-0AFC-48AF-9DC6-D8CC84A91864}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14520,7 +15946,10 @@
       <c r="B8" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <f>QUARTILE('NBA Players 14-15 season'!C:C,1)</f>
+        <v>154.25</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
@@ -14530,7 +15959,10 @@
       <c r="B10" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <f>QUARTILE('NBA Players 14-15 season'!C:C,2)</f>
+        <v>432</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
@@ -14540,7 +15972,10 @@
       <c r="B12" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <f>QUARTILE('NBA Players 14-15 season'!C:C,3)</f>
+        <v>788.75</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
@@ -14550,14 +15985,61 @@
       <c r="B14" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15">
+        <f>C12-C8</f>
+        <v>634.5</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="16"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16">
+        <f>C14*1.5</f>
+        <v>951.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17">
+        <f>C12+C16</f>
+        <v>1740.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19">
+        <f>C8-C14</f>
+        <v>-480.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE('NBA Players 14-15 season'!C:C)</f>
+        <v>515.89099526066354</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22">
+        <f>MEDIAN('NBA Players 14-15 season'!C:C)</f>
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B12:B13"/>
@@ -14572,6 +16054,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18298,7 +19781,7 @@
   <dimension ref="A1:G423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
+++ b/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Quartiles, the IQR, and Percentiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E2FBC-7BB6-4F36-B8D2-391B89E96821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D7067-25E6-464B-AB48-EB4A16634434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="NBA Players 14-15 season" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Classifying data'!$A$1:$B$423</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Classifying data'!$A$1:$C$423</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
@@ -32,13 +32,11 @@
     <definedName name="_xlchart.v1.15" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
@@ -83,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="495">
   <si>
     <t>Name</t>
   </si>
@@ -1561,6 +1559,15 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Outlier (IRQ*1.5)</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2265,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2405,14 +2412,17 @@
     <xf numFmtId="0" fontId="16" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -15899,8 +15909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A25B489-0AFC-48AF-9DC6-D8CC84A91864}">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16062,8 +16072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4BB21A-0D1D-4534-9E2C-198EB46BE37A}">
   <dimension ref="A1:W423"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16089,13 +16099,20 @@
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="B2" s="10">
-        <v>954</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>VLOOKUP(B2,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>452</v>
@@ -16110,10 +16127,14 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="B3" s="10">
-        <v>243</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>VLOOKUP(B3,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>445</v>
@@ -16130,10 +16151,14 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="B4" s="10">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>VLOOKUP(B4,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O4" s="33"/>
       <c r="P4" s="16"/>
@@ -16148,10 +16173,14 @@
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f>VLOOKUP(B5,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>447</v>
@@ -16164,10 +16193,20 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="B6" s="10">
-        <v>1156</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>VLOOKUP(B6,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>462</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="12"/>
@@ -16176,12 +16215,23 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="B7" s="10">
-        <v>1082</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f>VLOOKUP(B7,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="F7" s="10"/>
+      <c r="G7">
+        <f>P3</f>
+        <v>154.25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>463</v>
+      </c>
       <c r="O7" s="31" t="s">
         <v>450</v>
       </c>
@@ -16197,10 +16247,21 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10">
-        <v>545</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f>VLOOKUP(B8,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="G8">
+        <f>P5</f>
+        <v>788.75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>464</v>
       </c>
       <c r="O8" s="31"/>
       <c r="P8" s="12"/>
@@ -16215,24 +16276,42 @@
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B9" s="10">
-        <v>374</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f>VLOOKUP(B9,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="G9">
+        <f>P9</f>
+        <v>1740.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>493</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="15">
+        <f>P5+P15</f>
+        <v>1740.5</v>
+      </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B10" s="10">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f>VLOOKUP(B10,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="28"/>
@@ -16241,10 +16320,14 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10">
-        <v>432</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f>VLOOKUP(B11,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="O11" s="51"/>
       <c r="P11" s="28"/>
@@ -16252,17 +16335,24 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B12" s="10">
-        <v>434</v>
-      </c>
-      <c r="O12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>VLOOKUP(B12,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="O12" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="P12" s="12"/>
+      <c r="P12" s="15">
+        <f>P3-P15</f>
+        <v>-797.5</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="T12" s="12" t="s">
         <v>458</v>
@@ -16273,34 +16363,53 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="B13" s="10">
-        <v>443</v>
-      </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f>VLOOKUP(B13,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="28"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="B14" s="10">
-        <v>412</v>
-      </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f>VLOOKUP(B14,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="O14" s="55"/>
+      <c r="P14" s="16"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="B15" s="10">
-        <v>168</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>VLOOKUP(B15,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="O15" t="s">
+        <v>492</v>
+      </c>
+      <c r="P15">
+        <f>P7*1.5</f>
+        <v>951.75</v>
       </c>
       <c r="R15" s="25" t="s">
         <v>447</v>
@@ -16311,10 +16420,14 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B16" s="10">
-        <v>241</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>VLOOKUP(B16,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="50"/>
@@ -16327,10 +16440,14 @@
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="B17" s="10">
-        <v>694</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f>VLOOKUP(B17,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="M17" s="6"/>
       <c r="R17" s="8"/>
@@ -16340,10 +16457,14 @@
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f>VLOOKUP(B18,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="M18" s="11"/>
       <c r="T18" s="12"/>
@@ -16351,10 +16472,14 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10">
-        <v>1130</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>VLOOKUP(B19,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="M19" s="11"/>
       <c r="R19" s="25" t="s">
@@ -16366,10 +16491,14 @@
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10">
-        <v>604</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f>VLOOKUP(B20,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="M20" s="11"/>
       <c r="R20" s="25"/>
@@ -16383,10 +16512,14 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B21" s="10">
-        <v>355</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f>VLOOKUP(B21,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="M21" s="11"/>
       <c r="T21" s="12"/>
@@ -16394,68 +16527,100 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="B22" s="10">
-        <v>228</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f>VLOOKUP(B22,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B23" s="10">
-        <v>430</v>
+        <v>16</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f>VLOOKUP(B23,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B24" s="10">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f>VLOOKUP(B24,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="B25" s="10">
-        <v>422</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f>VLOOKUP(B25,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B26" s="10">
-        <v>194</v>
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f>VLOOKUP(B26,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="B27" s="10">
-        <v>298</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f>VLOOKUP(B27,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="B28" s="10">
-        <v>1656</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f>VLOOKUP(B28,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>370</v>
       </c>
       <c r="B29" s="10">
-        <v>790</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f>VLOOKUP(B29,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R29" s="44" t="s">
         <v>467</v>
@@ -16468,10 +16633,14 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
       <c r="B30" s="10">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f>VLOOKUP(B30,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="48"/>
@@ -16482,10 +16651,14 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B31" s="10">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f>VLOOKUP(B31,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R31" s="34" t="s">
         <v>430</v>
@@ -16500,10 +16673,14 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="B32" s="10">
-        <v>461</v>
+        <v>22</v>
+      </c>
+      <c r="C32" s="10" t="str">
+        <f>VLOOKUP(B32,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R32" s="35"/>
       <c r="S32" s="39"/>
@@ -16514,12 +16691,16 @@
     </row>
     <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="B33" s="10">
-        <v>1035</v>
-      </c>
-      <c r="R33" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f>VLOOKUP(B33,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="R33" s="52" t="s">
         <v>441</v>
       </c>
       <c r="S33" s="36" t="s">
@@ -16532,12 +16713,16 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="B34" s="10">
-        <v>129</v>
-      </c>
-      <c r="R34" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f>VLOOKUP(B34,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+      <c r="R34" s="53"/>
       <c r="S34" s="39"/>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
@@ -16546,26 +16731,38 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="B35" s="10">
-        <v>530</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f>VLOOKUP(B35,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="B36" s="10">
-        <v>1071</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f>VLOOKUP(B36,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10">
-        <v>349</v>
+        <v>27</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f>VLOOKUP(B37,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R37" s="44" t="s">
         <v>470</v>
@@ -16578,10 +16775,14 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B38" s="10">
-        <v>996</v>
+        <v>27</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f>VLOOKUP(B38,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>
@@ -16592,10 +16793,14 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="B39" s="10">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f>VLOOKUP(B39,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R39" s="34" t="s">
         <v>430</v>
@@ -16610,10 +16815,14 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="B40" s="10">
-        <v>304</v>
+        <v>27</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f>VLOOKUP(B40,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R40" s="35"/>
       <c r="S40" s="39"/>
@@ -16624,10 +16833,14 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="B41" s="10">
-        <v>1469</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f>VLOOKUP(B41,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R41" s="42" t="s">
         <v>441</v>
@@ -16642,10 +16855,14 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="B42" s="10">
-        <v>700</v>
+        <v>29</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f>VLOOKUP(B42,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R42" s="42"/>
       <c r="S42" s="12"/>
@@ -16656,10 +16873,14 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B43" s="10">
-        <v>708</v>
+        <v>30</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>VLOOKUP(B43,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R43" s="42"/>
       <c r="S43" s="43" t="e" cm="1">
@@ -16673,10 +16894,14 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="B44" s="10">
-        <v>962</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f>VLOOKUP(B44,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R44" s="42"/>
       <c r="S44" s="43"/>
@@ -16687,10 +16912,14 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10">
-        <v>866</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f>VLOOKUP(B45,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R45" s="42"/>
       <c r="S45" s="43"/>
@@ -16701,10 +16930,14 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="B46" s="10">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f>VLOOKUP(B46,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="R46" s="42"/>
       <c r="S46" s="43"/>
@@ -16715,3021 +16948,4534 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47" s="10">
-        <v>632</v>
+        <v>35</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f>VLOOKUP(B47,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="10">
+        <v>35</v>
+      </c>
+      <c r="C48" s="10" t="str">
+        <f>VLOOKUP(B48,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="10">
+        <v>36</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f>VLOOKUP(B49,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="10">
+        <v>37</v>
+      </c>
+      <c r="C50" s="10" t="str">
+        <f>VLOOKUP(B50,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="10">
+        <v>38</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f>VLOOKUP(B51,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="10">
+        <v>41</v>
+      </c>
+      <c r="C52" s="10" t="str">
+        <f>VLOOKUP(B52,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="10">
+        <v>44</v>
+      </c>
+      <c r="C53" s="10" t="str">
+        <f>VLOOKUP(B53,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="10">
+        <v>45</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <f>VLOOKUP(B54,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="10">
+        <v>45</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <f>VLOOKUP(B55,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="10">
+        <v>46</v>
+      </c>
+      <c r="C56" s="10" t="str">
+        <f>VLOOKUP(B56,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="10">
+        <v>46</v>
+      </c>
+      <c r="C57" s="10" t="str">
+        <f>VLOOKUP(B57,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="10">
+        <v>50</v>
+      </c>
+      <c r="C58" s="10" t="str">
+        <f>VLOOKUP(B58,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>396</v>
+      </c>
+      <c r="B59" s="10">
+        <v>51</v>
+      </c>
+      <c r="C59" s="10" t="str">
+        <f>VLOOKUP(B59,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="10">
+        <v>52</v>
+      </c>
+      <c r="C60" s="10" t="str">
+        <f>VLOOKUP(B60,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="10">
         <v>53</v>
       </c>
-      <c r="B48" s="10">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="10">
+      <c r="C61" s="10" t="str">
+        <f>VLOOKUP(B61,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="10">
+        <v>53</v>
+      </c>
+      <c r="C62" s="10" t="str">
+        <f>VLOOKUP(B62,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="10">
+        <v>56</v>
+      </c>
+      <c r="C63" s="10" t="str">
+        <f>VLOOKUP(B63,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="10">
+        <v>57</v>
+      </c>
+      <c r="C64" s="10" t="str">
+        <f>VLOOKUP(B64,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>392</v>
+      </c>
+      <c r="B65" s="10">
+        <v>57</v>
+      </c>
+      <c r="C65" s="10" t="str">
+        <f>VLOOKUP(B65,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="10">
+        <v>60</v>
+      </c>
+      <c r="C66" s="10" t="str">
+        <f>VLOOKUP(B66,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="10">
+        <v>62</v>
+      </c>
+      <c r="C67" s="10" t="str">
+        <f>VLOOKUP(B67,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="10">
+        <v>62</v>
+      </c>
+      <c r="C68" s="10" t="str">
+        <f>VLOOKUP(B68,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" s="10">
+        <v>63</v>
+      </c>
+      <c r="C69" s="10" t="str">
+        <f>VLOOKUP(B69,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="10">
+        <v>69</v>
+      </c>
+      <c r="C70" s="10" t="str">
+        <f>VLOOKUP(B70,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="10">
+        <v>72</v>
+      </c>
+      <c r="C71" s="10" t="str">
+        <f>VLOOKUP(B71,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="10">
+        <v>74</v>
+      </c>
+      <c r="C72" s="10" t="str">
+        <f>VLOOKUP(B72,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" s="10">
+        <v>74</v>
+      </c>
+      <c r="C73" s="10" t="str">
+        <f>VLOOKUP(B73,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="10">
+        <v>80</v>
+      </c>
+      <c r="C74" s="10" t="str">
+        <f>VLOOKUP(B74,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="10">
+        <v>80</v>
+      </c>
+      <c r="C75" s="10" t="str">
+        <f>VLOOKUP(B75,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="10">
+        <v>83</v>
+      </c>
+      <c r="C76" s="10" t="str">
+        <f>VLOOKUP(B76,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="10">
+        <v>83</v>
+      </c>
+      <c r="C77" s="10" t="str">
+        <f>VLOOKUP(B77,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="10">
+        <v>87</v>
+      </c>
+      <c r="C78" s="10" t="str">
+        <f>VLOOKUP(B78,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="10">
+        <v>90</v>
+      </c>
+      <c r="C79" s="10" t="str">
+        <f>VLOOKUP(B79,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="10">
+        <v>90</v>
+      </c>
+      <c r="C80" s="10" t="str">
+        <f>VLOOKUP(B80,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="10">
+        <v>93</v>
+      </c>
+      <c r="C81" s="10" t="str">
+        <f>VLOOKUP(B81,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="10">
+        <v>93</v>
+      </c>
+      <c r="C82" s="10" t="str">
+        <f>VLOOKUP(B82,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="10">
+        <v>94</v>
+      </c>
+      <c r="C83" s="10" t="str">
+        <f>VLOOKUP(B83,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="10">
+        <v>96</v>
+      </c>
+      <c r="C84" s="10" t="str">
+        <f>VLOOKUP(B84,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="10">
+        <v>98</v>
+      </c>
+      <c r="C85" s="10" t="str">
+        <f>VLOOKUP(B85,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="10">
+        <v>100</v>
+      </c>
+      <c r="C86" s="10" t="str">
+        <f>VLOOKUP(B86,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="10">
+        <v>106</v>
+      </c>
+      <c r="C87" s="10" t="str">
+        <f>VLOOKUP(B87,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" s="10">
+        <v>108</v>
+      </c>
+      <c r="C88" s="10" t="str">
+        <f>VLOOKUP(B88,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="10">
+        <v>109</v>
+      </c>
+      <c r="C89" s="10" t="str">
+        <f>VLOOKUP(B89,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" s="10">
+        <v>109</v>
+      </c>
+      <c r="C90" s="10" t="str">
+        <f>VLOOKUP(B90,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="10">
+        <v>118</v>
+      </c>
+      <c r="C91" s="10" t="str">
+        <f>VLOOKUP(B91,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" s="10">
+        <v>121</v>
+      </c>
+      <c r="C92" s="10" t="str">
+        <f>VLOOKUP(B92,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" s="10">
+        <v>122</v>
+      </c>
+      <c r="C93" s="10" t="str">
+        <f>VLOOKUP(B93,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="10">
+        <v>127</v>
+      </c>
+      <c r="C94" s="10" t="str">
+        <f>VLOOKUP(B94,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" s="10">
+        <v>128</v>
+      </c>
+      <c r="C95" s="10" t="str">
+        <f>VLOOKUP(B95,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="10">
+        <v>129</v>
+      </c>
+      <c r="C96" s="10" t="str">
+        <f>VLOOKUP(B96,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="10">
+        <v>133</v>
+      </c>
+      <c r="C97" s="10" t="str">
+        <f>VLOOKUP(B97,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="10">
+        <v>135</v>
+      </c>
+      <c r="C98" s="10" t="str">
+        <f>VLOOKUP(B98,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="10">
+        <v>136</v>
+      </c>
+      <c r="C99" s="10" t="str">
+        <f>VLOOKUP(B99,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="10">
+        <v>137</v>
+      </c>
+      <c r="C100" s="10" t="str">
+        <f>VLOOKUP(B100,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>361</v>
+      </c>
+      <c r="B101" s="10">
+        <v>137</v>
+      </c>
+      <c r="C101" s="10" t="str">
+        <f>VLOOKUP(B101,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="10">
+        <v>138</v>
+      </c>
+      <c r="C102" s="10" t="str">
+        <f>VLOOKUP(B102,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="10">
+        <v>142</v>
+      </c>
+      <c r="C103" s="10" t="str">
+        <f>VLOOKUP(B103,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" s="10">
+        <v>145</v>
+      </c>
+      <c r="C104" s="10" t="str">
+        <f>VLOOKUP(B104,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="10">
+        <v>146</v>
+      </c>
+      <c r="C105" s="10" t="str">
+        <f>VLOOKUP(B105,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="10">
+        <v>149</v>
+      </c>
+      <c r="C106" s="10" t="str">
+        <f>VLOOKUP(B106,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" s="10">
+        <v>153</v>
+      </c>
+      <c r="C107" s="10" t="str">
+        <f>VLOOKUP(B107,$G$6:$H$9,2,TRUE)</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="10">
+        <v>158</v>
+      </c>
+      <c r="C108" s="10" t="str">
+        <f>VLOOKUP(B108,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="10">
+        <v>166</v>
+      </c>
+      <c r="C109" s="10" t="str">
+        <f>VLOOKUP(B109,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="10">
+        <v>167</v>
+      </c>
+      <c r="C110" s="10" t="str">
+        <f>VLOOKUP(B110,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="10">
+        <v>168</v>
+      </c>
+      <c r="C111" s="10" t="str">
+        <f>VLOOKUP(B111,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="10">
+        <v>169</v>
+      </c>
+      <c r="C112" s="10" t="str">
+        <f>VLOOKUP(B112,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="10">
+        <v>172</v>
+      </c>
+      <c r="C113" s="10" t="str">
+        <f>VLOOKUP(B113,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>346</v>
+      </c>
+      <c r="B114" s="10">
+        <v>176</v>
+      </c>
+      <c r="C114" s="10" t="str">
+        <f>VLOOKUP(B114,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>404</v>
+      </c>
+      <c r="B115" s="10">
+        <v>176</v>
+      </c>
+      <c r="C115" s="10" t="str">
+        <f>VLOOKUP(B115,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="10">
+        <v>177</v>
+      </c>
+      <c r="C116" s="10" t="str">
+        <f>VLOOKUP(B116,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="10">
+        <v>178</v>
+      </c>
+      <c r="C117" s="10" t="str">
+        <f>VLOOKUP(B117,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="10">
+        <v>182</v>
+      </c>
+      <c r="C118" s="10" t="str">
+        <f>VLOOKUP(B118,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="10">
+        <v>183</v>
+      </c>
+      <c r="C119" s="10" t="str">
+        <f>VLOOKUP(B119,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="10">
+        <v>184</v>
+      </c>
+      <c r="C120" s="10" t="str">
+        <f>VLOOKUP(B120,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
+      <c r="B121" s="10">
+        <v>184</v>
+      </c>
+      <c r="C121" s="10" t="str">
+        <f>VLOOKUP(B121,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="10">
+        <v>188</v>
+      </c>
+      <c r="C122" s="10" t="str">
+        <f>VLOOKUP(B122,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="10">
+        <v>188</v>
+      </c>
+      <c r="C123" s="10" t="str">
+        <f>VLOOKUP(B123,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="10">
+        <v>188</v>
+      </c>
+      <c r="C124" s="10" t="str">
+        <f>VLOOKUP(B124,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="10">
+        <v>190</v>
+      </c>
+      <c r="C125" s="10" t="str">
+        <f>VLOOKUP(B125,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="10">
+        <v>194</v>
+      </c>
+      <c r="C126" s="10" t="str">
+        <f>VLOOKUP(B126,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="10">
+        <v>197</v>
+      </c>
+      <c r="C127" s="10" t="str">
+        <f>VLOOKUP(B127,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>350</v>
+      </c>
+      <c r="B128" s="10">
+        <v>198</v>
+      </c>
+      <c r="C128" s="10" t="str">
+        <f>VLOOKUP(B128,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" s="10">
+        <v>201</v>
+      </c>
+      <c r="C129" s="10" t="str">
+        <f>VLOOKUP(B129,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="10">
+        <v>203</v>
+      </c>
+      <c r="C130" s="10" t="str">
+        <f>VLOOKUP(B130,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="10">
+        <v>204</v>
+      </c>
+      <c r="C131" s="10" t="str">
+        <f>VLOOKUP(B131,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="10">
+        <v>210</v>
+      </c>
+      <c r="C132" s="10" t="str">
+        <f>VLOOKUP(B132,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="10">
+        <v>212</v>
+      </c>
+      <c r="C133" s="10" t="str">
+        <f>VLOOKUP(B133,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="10">
+        <v>213</v>
+      </c>
+      <c r="C134" s="10" t="str">
+        <f>VLOOKUP(B134,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="10">
+        <v>216</v>
+      </c>
+      <c r="C135" s="10" t="str">
+        <f>VLOOKUP(B135,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>285</v>
+      </c>
+      <c r="B136" s="10">
+        <v>216</v>
+      </c>
+      <c r="C136" s="10" t="str">
+        <f>VLOOKUP(B136,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137" s="10">
+        <v>219</v>
+      </c>
+      <c r="C137" s="10" t="str">
+        <f>VLOOKUP(B137,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>355</v>
+      </c>
+      <c r="B138" s="10">
+        <v>221</v>
+      </c>
+      <c r="C138" s="10" t="str">
+        <f>VLOOKUP(B138,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="10">
+        <v>226</v>
+      </c>
+      <c r="C139" s="10" t="str">
+        <f>VLOOKUP(B139,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="10">
+        <v>227</v>
+      </c>
+      <c r="C140" s="10" t="str">
+        <f>VLOOKUP(B140,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="10">
+        <v>228</v>
+      </c>
+      <c r="C141" s="10" t="str">
+        <f>VLOOKUP(B141,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="10">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="10">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="10">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="10">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="10">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="10">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="10">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="10">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="10">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="10">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="10">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="10">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="10">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="10">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="10">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="10">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="10">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="10">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="10">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="10">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="10">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="10">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="10">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="10">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="10">
+      <c r="B142" s="10">
+        <v>231</v>
+      </c>
+      <c r="C142" s="10" t="str">
+        <f>VLOOKUP(B142,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="10">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="10">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="10">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="10">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="10">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="10">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="10">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="10">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="10">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="10">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="10">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="10">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="10">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="10">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="10">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="10">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="10">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="10">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="10">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="10">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="10">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="10">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="10">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="10">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="10">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="10">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="10">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="10">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="10">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="10">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="10">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="10">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" s="10">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="10">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="10">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="10">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" s="10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="10">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="10">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" s="10">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" s="10">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" s="10">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" s="10">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>148</v>
-      </c>
       <c r="B143" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C143" s="10" t="str">
+        <f>VLOOKUP(B143,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="B144" s="10">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C144" s="10" t="str">
+        <f>VLOOKUP(B144,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="B145" s="10">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C145" s="10" t="str">
+        <f>VLOOKUP(B145,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="B146" s="10">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C146" s="10" t="str">
+        <f>VLOOKUP(B146,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B147" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="C147" s="10" t="str">
+        <f>VLOOKUP(B147,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="B148" s="10">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C148" s="10" t="str">
+        <f>VLOOKUP(B148,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="B149" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C149" s="10" t="str">
+        <f>VLOOKUP(B149,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="B150" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="C150" s="10" t="str">
+        <f>VLOOKUP(B150,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="B151" s="10">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="C151" s="10" t="str">
+        <f>VLOOKUP(B151,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="B152" s="10">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C152" s="10" t="str">
+        <f>VLOOKUP(B152,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="B153" s="10">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C153" s="10" t="str">
+        <f>VLOOKUP(B153,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>159</v>
       </c>
       <c r="B154" s="10">
         <v>265</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="10" t="str">
+        <f>VLOOKUP(B154,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>407</v>
       </c>
       <c r="B155" s="10">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="C155" s="10" t="str">
+        <f>VLOOKUP(B155,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="B156" s="10">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="C156" s="10" t="str">
+        <f>VLOOKUP(B156,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="B157" s="10">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="C157" s="10" t="str">
+        <f>VLOOKUP(B157,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="B158" s="10">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C158" s="10" t="str">
+        <f>VLOOKUP(B158,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B159" s="10">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C159" s="10" t="str">
+        <f>VLOOKUP(B159,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="B160" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="C160" s="10" t="str">
+        <f>VLOOKUP(B160,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B161" s="10">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="C161" s="10" t="str">
+        <f>VLOOKUP(B161,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B162" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C162" s="10" t="str">
+        <f>VLOOKUP(B162,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="B163" s="10">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C163" s="10" t="str">
+        <f>VLOOKUP(B163,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="B164" s="10">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C164" s="10" t="str">
+        <f>VLOOKUP(B164,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" s="10">
+        <v>295</v>
+      </c>
+      <c r="C165" s="10" t="str">
+        <f>VLOOKUP(B165,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="10">
+        <v>298</v>
+      </c>
+      <c r="C166" s="10" t="str">
+        <f>VLOOKUP(B166,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>375</v>
+      </c>
+      <c r="B167" s="10">
+        <v>299</v>
+      </c>
+      <c r="C167" s="10" t="str">
+        <f>VLOOKUP(B167,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="10">
+        <v>304</v>
+      </c>
+      <c r="C168" s="10" t="str">
+        <f>VLOOKUP(B168,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>422</v>
+      </c>
+      <c r="B169" s="10">
+        <v>306</v>
+      </c>
+      <c r="C169" s="10" t="str">
+        <f>VLOOKUP(B169,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>72</v>
+      </c>
+      <c r="B170" s="10">
+        <v>309</v>
+      </c>
+      <c r="C170" s="10" t="str">
+        <f>VLOOKUP(B170,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B171" s="10">
         <v>312</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" s="10">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>172</v>
-      </c>
-      <c r="B167" s="10">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>173</v>
-      </c>
-      <c r="B168" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>175</v>
-      </c>
-      <c r="B170" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>176</v>
-      </c>
-      <c r="B171" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" s="10" t="str">
+        <f>VLOOKUP(B171,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="B172" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="C172" s="10" t="str">
+        <f>VLOOKUP(B172,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="B173" s="10">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C173" s="10" t="str">
+        <f>VLOOKUP(B173,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B174" s="10">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C174" s="10" t="str">
+        <f>VLOOKUP(B174,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="B175" s="10">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="C175" s="10" t="str">
+        <f>VLOOKUP(B175,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="B176" s="10">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C176" s="10" t="str">
+        <f>VLOOKUP(B176,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="B177" s="10">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C177" s="10" t="str">
+        <f>VLOOKUP(B177,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="B178" s="10">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="C178" s="10" t="str">
+        <f>VLOOKUP(B178,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>362</v>
       </c>
       <c r="B179" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="C179" s="10" t="str">
+        <f>VLOOKUP(B179,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="B180" s="10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="C180" s="10" t="str">
+        <f>VLOOKUP(B180,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B181" s="10">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C181" s="10" t="str">
+        <f>VLOOKUP(B181,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="B182" s="10">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="C182" s="10" t="str">
+        <f>VLOOKUP(B182,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="B183" s="10">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="C183" s="10" t="str">
+        <f>VLOOKUP(B183,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="B184" s="10">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="C184" s="10" t="str">
+        <f>VLOOKUP(B184,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>327</v>
       </c>
       <c r="B185" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="C185" s="10" t="str">
+        <f>VLOOKUP(B185,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="B186" s="10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="C186" s="10" t="str">
+        <f>VLOOKUP(B186,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="B187" s="10">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="C187" s="10" t="str">
+        <f>VLOOKUP(B187,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="B188" s="10">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="C188" s="10" t="str">
+        <f>VLOOKUP(B188,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B189" s="10">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="C189" s="10" t="str">
+        <f>VLOOKUP(B189,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="B190" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="C190" s="10" t="str">
+        <f>VLOOKUP(B190,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="B191" s="10">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="C191" s="10" t="str">
+        <f>VLOOKUP(B191,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B192" s="10">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="C192" s="10" t="str">
+        <f>VLOOKUP(B192,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="B193" s="10">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="C193" s="10" t="str">
+        <f>VLOOKUP(B193,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="B194" s="10">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="C194" s="10" t="str">
+        <f>VLOOKUP(B194,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B195" s="10">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="C195" s="10" t="str">
+        <f>VLOOKUP(B195,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B196" s="10">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="C196" s="10" t="str">
+        <f>VLOOKUP(B196,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B197" s="10">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="C197" s="10" t="str">
+        <f>VLOOKUP(B197,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="B198" s="10">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="C198" s="10" t="str">
+        <f>VLOOKUP(B198,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>204</v>
       </c>
       <c r="B199" s="10">
         <v>396</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="10" t="str">
+        <f>VLOOKUP(B199,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>419</v>
+      </c>
+      <c r="B200" s="10">
+        <v>397</v>
+      </c>
+      <c r="C200" s="10" t="str">
+        <f>VLOOKUP(B200,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>336</v>
+      </c>
+      <c r="B201" s="10">
+        <v>398</v>
+      </c>
+      <c r="C201" s="10" t="str">
+        <f>VLOOKUP(B201,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>340</v>
+      </c>
+      <c r="B202" s="10">
+        <v>402</v>
+      </c>
+      <c r="C202" s="10" t="str">
+        <f>VLOOKUP(B202,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>189</v>
+      </c>
+      <c r="B203" s="10">
+        <v>411</v>
+      </c>
+      <c r="C203" s="10" t="str">
+        <f>VLOOKUP(B203,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="10">
+        <v>412</v>
+      </c>
+      <c r="C204" s="10" t="str">
+        <f>VLOOKUP(B204,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="10">
+        <v>419</v>
+      </c>
+      <c r="C205" s="10" t="str">
+        <f>VLOOKUP(B205,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="10">
+        <v>422</v>
+      </c>
+      <c r="C206" s="10" t="str">
+        <f>VLOOKUP(B206,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>78</v>
+      </c>
+      <c r="B207" s="10">
+        <v>424</v>
+      </c>
+      <c r="C207" s="10" t="str">
+        <f>VLOOKUP(B207,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>379</v>
+      </c>
+      <c r="B208" s="10">
+        <v>425</v>
+      </c>
+      <c r="C208" s="10" t="str">
+        <f>VLOOKUP(B208,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>390</v>
+      </c>
+      <c r="B209" s="10">
+        <v>428</v>
+      </c>
+      <c r="C209" s="10" t="str">
+        <f>VLOOKUP(B209,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="10">
+        <v>430</v>
+      </c>
+      <c r="C210" s="10" t="str">
+        <f>VLOOKUP(B210,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" s="10">
+        <v>432</v>
+      </c>
+      <c r="C211" s="10" t="str">
+        <f>VLOOKUP(B211,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212" s="10">
+        <v>432</v>
+      </c>
+      <c r="C212" s="10" t="str">
+        <f>VLOOKUP(B212,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>348</v>
+      </c>
+      <c r="B213" s="10">
+        <v>432</v>
+      </c>
+      <c r="C213" s="10" t="str">
+        <f>VLOOKUP(B213,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>353</v>
+      </c>
+      <c r="B214" s="10">
+        <v>433</v>
+      </c>
+      <c r="C214" s="10" t="str">
+        <f>VLOOKUP(B214,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="10">
+        <v>434</v>
+      </c>
+      <c r="C215" s="10" t="str">
+        <f>VLOOKUP(B215,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>386</v>
+      </c>
+      <c r="B216" s="10">
+        <v>434</v>
+      </c>
+      <c r="C216" s="10" t="str">
+        <f>VLOOKUP(B216,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>341</v>
+      </c>
+      <c r="B217" s="10">
+        <v>435</v>
+      </c>
+      <c r="C217" s="10" t="str">
+        <f>VLOOKUP(B217,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>399</v>
+      </c>
+      <c r="B218" s="10">
+        <v>435</v>
+      </c>
+      <c r="C218" s="10" t="str">
+        <f>VLOOKUP(B218,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="10">
+        <v>443</v>
+      </c>
+      <c r="C219" s="10" t="str">
+        <f>VLOOKUP(B219,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>323</v>
+      </c>
+      <c r="B220" s="10">
+        <v>445</v>
+      </c>
+      <c r="C220" s="10" t="str">
+        <f>VLOOKUP(B220,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>215</v>
+      </c>
+      <c r="B221" s="10">
+        <v>448</v>
+      </c>
+      <c r="C221" s="10" t="str">
+        <f>VLOOKUP(B221,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222" s="10">
+        <v>457</v>
+      </c>
+      <c r="C222" s="10" t="str">
+        <f>VLOOKUP(B222,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223" s="10">
+        <v>460</v>
+      </c>
+      <c r="C223" s="10" t="str">
+        <f>VLOOKUP(B223,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>37</v>
+      </c>
+      <c r="B224" s="10">
+        <v>461</v>
+      </c>
+      <c r="C224" s="10" t="str">
+        <f>VLOOKUP(B224,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>371</v>
+      </c>
+      <c r="B225" s="10">
+        <v>461</v>
+      </c>
+      <c r="C225" s="10" t="str">
+        <f>VLOOKUP(B225,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226" s="10">
+        <v>467</v>
+      </c>
+      <c r="C226" s="10" t="str">
+        <f>VLOOKUP(B226,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227" s="10">
+        <v>470</v>
+      </c>
+      <c r="C227" s="10" t="str">
+        <f>VLOOKUP(B227,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>369</v>
+      </c>
+      <c r="B228" s="10">
+        <v>470</v>
+      </c>
+      <c r="C228" s="10" t="str">
+        <f>VLOOKUP(B228,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229" s="10">
+        <v>480</v>
+      </c>
+      <c r="C229" s="10" t="str">
+        <f>VLOOKUP(B229,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>257</v>
+      </c>
+      <c r="B230" s="10">
+        <v>480</v>
+      </c>
+      <c r="C230" s="10" t="str">
+        <f>VLOOKUP(B230,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>201</v>
+      </c>
+      <c r="B231" s="10">
+        <v>485</v>
+      </c>
+      <c r="C231" s="10" t="str">
+        <f>VLOOKUP(B231,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>247</v>
+      </c>
+      <c r="B232" s="10">
+        <v>487</v>
+      </c>
+      <c r="C232" s="10" t="str">
+        <f>VLOOKUP(B232,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>160</v>
+      </c>
+      <c r="B233" s="10">
+        <v>496</v>
+      </c>
+      <c r="C233" s="10" t="str">
+        <f>VLOOKUP(B233,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>260</v>
+      </c>
+      <c r="B234" s="10">
+        <v>501</v>
+      </c>
+      <c r="C234" s="10" t="str">
+        <f>VLOOKUP(B234,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>62</v>
+      </c>
+      <c r="B235" s="10">
+        <v>503</v>
+      </c>
+      <c r="C235" s="10" t="str">
+        <f>VLOOKUP(B235,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>343</v>
+      </c>
+      <c r="B236" s="10">
+        <v>503</v>
+      </c>
+      <c r="C236" s="10" t="str">
+        <f>VLOOKUP(B236,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>252</v>
+      </c>
+      <c r="B237" s="10">
+        <v>509</v>
+      </c>
+      <c r="C237" s="10" t="str">
+        <f>VLOOKUP(B237,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>368</v>
+      </c>
+      <c r="B238" s="10">
+        <v>512</v>
+      </c>
+      <c r="C238" s="10" t="str">
+        <f>VLOOKUP(B238,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>178</v>
+      </c>
+      <c r="B239" s="10">
+        <v>518</v>
+      </c>
+      <c r="C239" s="10" t="str">
+        <f>VLOOKUP(B239,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="10">
+        <v>520</v>
+      </c>
+      <c r="C240" s="10" t="str">
+        <f>VLOOKUP(B240,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>169</v>
+      </c>
+      <c r="B241" s="10">
+        <v>523</v>
+      </c>
+      <c r="C241" s="10" t="str">
+        <f>VLOOKUP(B241,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>283</v>
+      </c>
+      <c r="B242" s="10">
+        <v>523</v>
+      </c>
+      <c r="C242" s="10" t="str">
+        <f>VLOOKUP(B242,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>302</v>
+      </c>
+      <c r="B243" s="10">
+        <v>529</v>
+      </c>
+      <c r="C243" s="10" t="str">
+        <f>VLOOKUP(B243,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="10">
+        <v>530</v>
+      </c>
+      <c r="C244" s="10" t="str">
+        <f>VLOOKUP(B244,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>262</v>
+      </c>
+      <c r="B245" s="10">
+        <v>533</v>
+      </c>
+      <c r="C245" s="10" t="str">
+        <f>VLOOKUP(B245,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246" s="10">
+        <v>535</v>
+      </c>
+      <c r="C246" s="10" t="str">
+        <f>VLOOKUP(B246,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>383</v>
+      </c>
+      <c r="B247" s="10">
+        <v>537</v>
+      </c>
+      <c r="C247" s="10" t="str">
+        <f>VLOOKUP(B247,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>338</v>
+      </c>
+      <c r="B248" s="10">
+        <v>538</v>
+      </c>
+      <c r="C248" s="10" t="str">
+        <f>VLOOKUP(B248,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>397</v>
+      </c>
+      <c r="B249" s="10">
+        <v>539</v>
+      </c>
+      <c r="C249" s="10" t="str">
+        <f>VLOOKUP(B249,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>142</v>
+      </c>
+      <c r="B250" s="10">
+        <v>543</v>
+      </c>
+      <c r="C250" s="10" t="str">
+        <f>VLOOKUP(B250,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="10">
+        <v>545</v>
+      </c>
+      <c r="C251" s="10" t="str">
+        <f>VLOOKUP(B251,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>68</v>
+      </c>
+      <c r="B252" s="10">
+        <v>549</v>
+      </c>
+      <c r="C252" s="10" t="str">
+        <f>VLOOKUP(B252,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>199</v>
+      </c>
+      <c r="B253" s="10">
+        <v>552</v>
+      </c>
+      <c r="C253" s="10" t="str">
+        <f>VLOOKUP(B253,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>172</v>
+      </c>
+      <c r="B254" s="10">
+        <v>554</v>
+      </c>
+      <c r="C254" s="10" t="str">
+        <f>VLOOKUP(B254,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>321</v>
+      </c>
+      <c r="B255" s="10">
+        <v>557</v>
+      </c>
+      <c r="C255" s="10" t="str">
+        <f>VLOOKUP(B255,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>352</v>
+      </c>
+      <c r="B256" s="10">
+        <v>566</v>
+      </c>
+      <c r="C256" s="10" t="str">
+        <f>VLOOKUP(B256,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>402</v>
+      </c>
+      <c r="B257" s="10">
+        <v>567</v>
+      </c>
+      <c r="C257" s="10" t="str">
+        <f>VLOOKUP(B257,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>281</v>
+      </c>
+      <c r="B258" s="10">
+        <v>568</v>
+      </c>
+      <c r="C258" s="10" t="str">
+        <f>VLOOKUP(B258,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>325</v>
+      </c>
+      <c r="B259" s="10">
+        <v>568</v>
+      </c>
+      <c r="C259" s="10" t="str">
+        <f>VLOOKUP(B259,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>60</v>
+      </c>
+      <c r="B260" s="10">
+        <v>570</v>
+      </c>
+      <c r="C260" s="10" t="str">
+        <f>VLOOKUP(B260,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>318</v>
+      </c>
+      <c r="B261" s="10">
+        <v>573</v>
+      </c>
+      <c r="C261" s="10" t="str">
+        <f>VLOOKUP(B261,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>288</v>
+      </c>
+      <c r="B262" s="10">
+        <v>577</v>
+      </c>
+      <c r="C262" s="10" t="str">
+        <f>VLOOKUP(B262,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>163</v>
+      </c>
+      <c r="B263" s="10">
+        <v>580</v>
+      </c>
+      <c r="C263" s="10" t="str">
+        <f>VLOOKUP(B263,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>342</v>
+      </c>
+      <c r="B264" s="10">
+        <v>580</v>
+      </c>
+      <c r="C264" s="10" t="str">
+        <f>VLOOKUP(B264,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>226</v>
+      </c>
+      <c r="B265" s="10">
+        <v>592</v>
+      </c>
+      <c r="C265" s="10" t="str">
+        <f>VLOOKUP(B265,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>322</v>
+      </c>
+      <c r="B266" s="10">
+        <v>593</v>
+      </c>
+      <c r="C266" s="10" t="str">
+        <f>VLOOKUP(B266,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>299</v>
+      </c>
+      <c r="B267" s="10">
+        <v>595</v>
+      </c>
+      <c r="C267" s="10" t="str">
+        <f>VLOOKUP(B267,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>196</v>
+      </c>
+      <c r="B268" s="10">
+        <v>598</v>
+      </c>
+      <c r="C268" s="10" t="str">
+        <f>VLOOKUP(B268,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>297</v>
+      </c>
+      <c r="B269" s="10">
+        <v>598</v>
+      </c>
+      <c r="C269" s="10" t="str">
+        <f>VLOOKUP(B269,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270" s="10">
+        <v>604</v>
+      </c>
+      <c r="C270" s="10" t="str">
+        <f>VLOOKUP(B270,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>427</v>
+      </c>
+      <c r="B271" s="10">
+        <v>606</v>
+      </c>
+      <c r="C271" s="10" t="str">
+        <f>VLOOKUP(B271,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>339</v>
+      </c>
+      <c r="B272" s="10">
+        <v>608</v>
+      </c>
+      <c r="C272" s="10" t="str">
+        <f>VLOOKUP(B272,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>166</v>
+      </c>
+      <c r="B273" s="10">
+        <v>628</v>
+      </c>
+      <c r="C273" s="10" t="str">
+        <f>VLOOKUP(B273,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>52</v>
+      </c>
+      <c r="B274" s="10">
+        <v>632</v>
+      </c>
+      <c r="C274" s="10" t="str">
+        <f>VLOOKUP(B274,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>75</v>
+      </c>
+      <c r="B275" s="10">
+        <v>638</v>
+      </c>
+      <c r="C275" s="10" t="str">
+        <f>VLOOKUP(B275,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>384</v>
+      </c>
+      <c r="B276" s="10">
+        <v>640</v>
+      </c>
+      <c r="C276" s="10" t="str">
+        <f>VLOOKUP(B276,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>122</v>
+      </c>
+      <c r="B277" s="10">
+        <v>646</v>
+      </c>
+      <c r="C277" s="10" t="str">
+        <f>VLOOKUP(B277,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>416</v>
+      </c>
+      <c r="B278" s="10">
+        <v>650</v>
+      </c>
+      <c r="C278" s="10" t="str">
+        <f>VLOOKUP(B278,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>126</v>
+      </c>
+      <c r="B279" s="10">
+        <v>656</v>
+      </c>
+      <c r="C279" s="10" t="str">
+        <f>VLOOKUP(B279,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>232</v>
+      </c>
+      <c r="B280" s="10">
+        <v>656</v>
+      </c>
+      <c r="C280" s="10" t="str">
+        <f>VLOOKUP(B280,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>271</v>
+      </c>
+      <c r="B281" s="10">
+        <v>660</v>
+      </c>
+      <c r="C281" s="10" t="str">
+        <f>VLOOKUP(B281,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>202</v>
+      </c>
+      <c r="B282" s="10">
+        <v>663</v>
+      </c>
+      <c r="C282" s="10" t="str">
+        <f>VLOOKUP(B282,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>313</v>
+      </c>
+      <c r="B283" s="10">
+        <v>664</v>
+      </c>
+      <c r="C283" s="10" t="str">
+        <f>VLOOKUP(B283,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>111</v>
+      </c>
+      <c r="B284" s="10">
+        <v>665</v>
+      </c>
+      <c r="C284" s="10" t="str">
+        <f>VLOOKUP(B284,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>133</v>
+      </c>
+      <c r="B285" s="10">
+        <v>669</v>
+      </c>
+      <c r="C285" s="10" t="str">
+        <f>VLOOKUP(B285,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>240</v>
+      </c>
+      <c r="B286" s="10">
+        <v>686</v>
+      </c>
+      <c r="C286" s="10" t="str">
+        <f>VLOOKUP(B286,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>358</v>
+      </c>
+      <c r="B287" s="10">
+        <v>686</v>
+      </c>
+      <c r="C287" s="10" t="str">
+        <f>VLOOKUP(B287,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>143</v>
+      </c>
+      <c r="B288" s="10">
+        <v>692</v>
+      </c>
+      <c r="C288" s="10" t="str">
+        <f>VLOOKUP(B288,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="10">
+        <v>694</v>
+      </c>
+      <c r="C289" s="10" t="str">
+        <f>VLOOKUP(B289,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>135</v>
+      </c>
+      <c r="B290" s="10">
+        <v>698</v>
+      </c>
+      <c r="C290" s="10" t="str">
+        <f>VLOOKUP(B290,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>47</v>
+      </c>
+      <c r="B291" s="10">
+        <v>700</v>
+      </c>
+      <c r="C291" s="10" t="str">
+        <f>VLOOKUP(B291,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>218</v>
+      </c>
+      <c r="B292" s="10">
+        <v>703</v>
+      </c>
+      <c r="C292" s="10" t="str">
+        <f>VLOOKUP(B292,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>48</v>
+      </c>
+      <c r="B293" s="10">
+        <v>708</v>
+      </c>
+      <c r="C293" s="10" t="str">
+        <f>VLOOKUP(B293,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>151</v>
+      </c>
+      <c r="B294" s="10">
+        <v>710</v>
+      </c>
+      <c r="C294" s="10" t="str">
+        <f>VLOOKUP(B294,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>289</v>
+      </c>
+      <c r="B295" s="10">
+        <v>717</v>
+      </c>
+      <c r="C295" s="10" t="str">
+        <f>VLOOKUP(B295,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>99</v>
+      </c>
+      <c r="B296" s="10">
+        <v>725</v>
+      </c>
+      <c r="C296" s="10" t="str">
+        <f>VLOOKUP(B296,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>377</v>
+      </c>
+      <c r="B297" s="10">
+        <v>729</v>
+      </c>
+      <c r="C297" s="10" t="str">
+        <f>VLOOKUP(B297,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>127</v>
+      </c>
+      <c r="B298" s="10">
+        <v>731</v>
+      </c>
+      <c r="C298" s="10" t="str">
+        <f>VLOOKUP(B298,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>91</v>
+      </c>
+      <c r="B299" s="10">
+        <v>734</v>
+      </c>
+      <c r="C299" s="10" t="str">
+        <f>VLOOKUP(B299,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300" s="10">
+        <v>737</v>
+      </c>
+      <c r="C300" s="10" t="str">
+        <f>VLOOKUP(B300,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>278</v>
+      </c>
+      <c r="B301" s="10">
+        <v>738</v>
+      </c>
+      <c r="C301" s="10" t="str">
+        <f>VLOOKUP(B301,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="10">
+        <v>744</v>
+      </c>
+      <c r="C302" s="10" t="str">
+        <f>VLOOKUP(B302,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>417</v>
+      </c>
+      <c r="B303" s="10">
+        <v>753</v>
+      </c>
+      <c r="C303" s="10" t="str">
+        <f>VLOOKUP(B303,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>273</v>
+      </c>
+      <c r="B304" s="10">
+        <v>763</v>
+      </c>
+      <c r="C304" s="10" t="str">
+        <f>VLOOKUP(B304,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>290</v>
+      </c>
+      <c r="B305" s="10">
+        <v>764</v>
+      </c>
+      <c r="C305" s="10" t="str">
+        <f>VLOOKUP(B305,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>108</v>
+      </c>
+      <c r="B306" s="10">
+        <v>768</v>
+      </c>
+      <c r="C306" s="10" t="str">
+        <f>VLOOKUP(B306,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>102</v>
+      </c>
+      <c r="B307" s="10">
+        <v>769</v>
+      </c>
+      <c r="C307" s="10" t="str">
+        <f>VLOOKUP(B307,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>179</v>
+      </c>
+      <c r="B308" s="10">
+        <v>770</v>
+      </c>
+      <c r="C308" s="10" t="str">
+        <f>VLOOKUP(B308,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>410</v>
+      </c>
+      <c r="B309" s="10">
+        <v>771</v>
+      </c>
+      <c r="C309" s="10" t="str">
+        <f>VLOOKUP(B309,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>156</v>
+      </c>
+      <c r="B310" s="10">
+        <v>775</v>
+      </c>
+      <c r="C310" s="10" t="str">
+        <f>VLOOKUP(B310,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>86</v>
+      </c>
+      <c r="B311" s="10">
+        <v>777</v>
+      </c>
+      <c r="C311" s="10" t="str">
+        <f>VLOOKUP(B311,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>87</v>
+      </c>
+      <c r="B312" s="10">
+        <v>777</v>
+      </c>
+      <c r="C312" s="10" t="str">
+        <f>VLOOKUP(B312,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>425</v>
+      </c>
+      <c r="B313" s="10">
+        <v>778</v>
+      </c>
+      <c r="C313" s="10" t="str">
+        <f>VLOOKUP(B313,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>136</v>
+      </c>
+      <c r="B314" s="10">
+        <v>779</v>
+      </c>
+      <c r="C314" s="10" t="str">
+        <f>VLOOKUP(B314,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>243</v>
+      </c>
+      <c r="B315" s="10">
+        <v>779</v>
+      </c>
+      <c r="C315" s="10" t="str">
+        <f>VLOOKUP(B315,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>249</v>
+      </c>
+      <c r="B316" s="10">
+        <v>782</v>
+      </c>
+      <c r="C316" s="10" t="str">
+        <f>VLOOKUP(B316,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>394</v>
+      </c>
+      <c r="B317" s="10">
+        <v>785</v>
+      </c>
+      <c r="C317" s="10" t="str">
+        <f>VLOOKUP(B317,$G$6:$H$9,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>34</v>
+      </c>
+      <c r="B318" s="10">
+        <v>790</v>
+      </c>
+      <c r="C318" s="10" t="str">
+        <f>VLOOKUP(B318,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>287</v>
+      </c>
+      <c r="B319" s="10">
+        <v>791</v>
+      </c>
+      <c r="C319" s="10" t="str">
+        <f>VLOOKUP(B319,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>356</v>
+      </c>
+      <c r="B320" s="10">
+        <v>802</v>
+      </c>
+      <c r="C320" s="10" t="str">
+        <f>VLOOKUP(B320,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>393</v>
+      </c>
+      <c r="B321" s="10">
+        <v>804</v>
+      </c>
+      <c r="C321" s="10" t="str">
+        <f>VLOOKUP(B321,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>319</v>
+      </c>
+      <c r="B322" s="10">
+        <v>806</v>
+      </c>
+      <c r="C322" s="10" t="str">
+        <f>VLOOKUP(B322,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>388</v>
+      </c>
+      <c r="B323" s="10">
+        <v>807</v>
+      </c>
+      <c r="C323" s="10" t="str">
+        <f>VLOOKUP(B323,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>284</v>
+      </c>
+      <c r="B324" s="10">
+        <v>813</v>
+      </c>
+      <c r="C324" s="10" t="str">
+        <f>VLOOKUP(B324,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>131</v>
+      </c>
+      <c r="B325" s="10">
+        <v>818</v>
+      </c>
+      <c r="C325" s="10" t="str">
+        <f>VLOOKUP(B325,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>157</v>
+      </c>
+      <c r="B326" s="10">
+        <v>827</v>
+      </c>
+      <c r="C326" s="10" t="str">
+        <f>VLOOKUP(B326,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>193</v>
+      </c>
+      <c r="B327" s="10">
+        <v>832</v>
+      </c>
+      <c r="C327" s="10" t="str">
+        <f>VLOOKUP(B327,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>315</v>
+      </c>
+      <c r="B328" s="10">
+        <v>833</v>
+      </c>
+      <c r="C328" s="10" t="str">
+        <f>VLOOKUP(B328,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>360</v>
+      </c>
+      <c r="B329" s="10">
+        <v>833</v>
+      </c>
+      <c r="C329" s="10" t="str">
+        <f>VLOOKUP(B329,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>63</v>
+      </c>
+      <c r="B330" s="10">
+        <v>836</v>
+      </c>
+      <c r="C330" s="10" t="str">
+        <f>VLOOKUP(B330,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>221</v>
+      </c>
+      <c r="B331" s="10">
+        <v>841</v>
+      </c>
+      <c r="C331" s="10" t="str">
+        <f>VLOOKUP(B331,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>282</v>
+      </c>
+      <c r="B332" s="10">
+        <v>845</v>
+      </c>
+      <c r="C332" s="10" t="str">
+        <f>VLOOKUP(B332,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>225</v>
+      </c>
+      <c r="B333" s="10">
+        <v>847</v>
+      </c>
+      <c r="C333" s="10" t="str">
+        <f>VLOOKUP(B333,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>116</v>
+      </c>
+      <c r="B334" s="10">
+        <v>855</v>
+      </c>
+      <c r="C334" s="10" t="str">
+        <f>VLOOKUP(B334,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>50</v>
+      </c>
+      <c r="B335" s="10">
+        <v>866</v>
+      </c>
+      <c r="C335" s="10" t="str">
+        <f>VLOOKUP(B335,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>331</v>
+      </c>
+      <c r="B336" s="10">
+        <v>868</v>
+      </c>
+      <c r="C336" s="10" t="str">
+        <f>VLOOKUP(B336,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>107</v>
+      </c>
+      <c r="B337" s="10">
+        <v>883</v>
+      </c>
+      <c r="C337" s="10" t="str">
+        <f>VLOOKUP(B337,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>144</v>
+      </c>
+      <c r="B338" s="10">
+        <v>884</v>
+      </c>
+      <c r="C338" s="10" t="str">
+        <f>VLOOKUP(B338,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>354</v>
+      </c>
+      <c r="B339" s="10">
+        <v>896</v>
+      </c>
+      <c r="C339" s="10" t="str">
+        <f>VLOOKUP(B339,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>110</v>
+      </c>
+      <c r="B340" s="10">
+        <v>904</v>
+      </c>
+      <c r="C340" s="10" t="str">
+        <f>VLOOKUP(B340,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>254</v>
+      </c>
+      <c r="B341" s="10">
+        <v>911</v>
+      </c>
+      <c r="C341" s="10" t="str">
+        <f>VLOOKUP(B341,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" s="10">
+        <v>917</v>
+      </c>
+      <c r="C342" s="10" t="str">
+        <f>VLOOKUP(B342,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>365</v>
+      </c>
+      <c r="B343" s="10">
+        <v>917</v>
+      </c>
+      <c r="C343" s="10" t="str">
+        <f>VLOOKUP(B343,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>118</v>
+      </c>
+      <c r="B344" s="10">
+        <v>921</v>
+      </c>
+      <c r="C344" s="10" t="str">
+        <f>VLOOKUP(B344,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>71</v>
+      </c>
+      <c r="B345" s="10">
+        <v>928</v>
+      </c>
+      <c r="C345" s="10" t="str">
+        <f>VLOOKUP(B345,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>79</v>
+      </c>
+      <c r="B346" s="10">
+        <v>942</v>
+      </c>
+      <c r="C346" s="10" t="str">
+        <f>VLOOKUP(B346,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" s="10">
+        <v>943</v>
+      </c>
+      <c r="C347" s="10" t="str">
+        <f>VLOOKUP(B347,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>93</v>
+      </c>
+      <c r="B348" s="10">
+        <v>946</v>
+      </c>
+      <c r="C348" s="10" t="str">
+        <f>VLOOKUP(B348,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>103</v>
+      </c>
+      <c r="B349" s="10">
+        <v>946</v>
+      </c>
+      <c r="C349" s="10" t="str">
+        <f>VLOOKUP(B349,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>236</v>
+      </c>
+      <c r="B350" s="10">
+        <v>946</v>
+      </c>
+      <c r="C350" s="10" t="str">
+        <f>VLOOKUP(B350,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="10">
+        <v>954</v>
+      </c>
+      <c r="C351" s="10" t="str">
+        <f>VLOOKUP(B351,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>418</v>
+      </c>
+      <c r="B352" s="10">
+        <v>956</v>
+      </c>
+      <c r="C352" s="10" t="str">
+        <f>VLOOKUP(B352,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>180</v>
+      </c>
+      <c r="B353" s="10">
+        <v>957</v>
+      </c>
+      <c r="C353" s="10" t="str">
+        <f>VLOOKUP(B353,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>49</v>
+      </c>
+      <c r="B354" s="10">
+        <v>962</v>
+      </c>
+      <c r="C354" s="10" t="str">
+        <f>VLOOKUP(B354,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>216</v>
+      </c>
+      <c r="B355" s="10">
+        <v>963</v>
+      </c>
+      <c r="C355" s="10" t="str">
+        <f>VLOOKUP(B355,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>305</v>
+      </c>
+      <c r="B356" s="10">
+        <v>964</v>
+      </c>
+      <c r="C356" s="10" t="str">
+        <f>VLOOKUP(B356,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>64</v>
+      </c>
+      <c r="B357" s="10">
+        <v>966</v>
+      </c>
+      <c r="C357" s="10" t="str">
+        <f>VLOOKUP(B357,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>296</v>
+      </c>
+      <c r="B358" s="10">
+        <v>966</v>
+      </c>
+      <c r="C358" s="10" t="str">
+        <f>VLOOKUP(B358,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>145</v>
+      </c>
+      <c r="B359" s="10">
+        <v>969</v>
+      </c>
+      <c r="C359" s="10" t="str">
+        <f>VLOOKUP(B359,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>403</v>
+      </c>
+      <c r="B360" s="10">
+        <v>973</v>
+      </c>
+      <c r="C360" s="10" t="str">
+        <f>VLOOKUP(B360,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>398</v>
+      </c>
+      <c r="B361" s="10">
+        <v>976</v>
+      </c>
+      <c r="C361" s="10" t="str">
+        <f>VLOOKUP(B361,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>43</v>
+      </c>
+      <c r="B362" s="10">
+        <v>996</v>
+      </c>
+      <c r="C362" s="10" t="str">
+        <f>VLOOKUP(B362,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>280</v>
+      </c>
+      <c r="B363" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C363" s="10" t="str">
+        <f>VLOOKUP(B363,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>276</v>
+      </c>
+      <c r="B364" s="10">
+        <v>1007</v>
+      </c>
+      <c r="C364" s="10" t="str">
+        <f>VLOOKUP(B364,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>168</v>
+      </c>
+      <c r="B365" s="10">
+        <v>1010</v>
+      </c>
+      <c r="C365" s="10" t="str">
+        <f>VLOOKUP(B365,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>146</v>
+      </c>
+      <c r="B366" s="10">
+        <v>1030</v>
+      </c>
+      <c r="C366" s="10" t="str">
+        <f>VLOOKUP(B366,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+      <c r="B367" s="10">
+        <v>1035</v>
+      </c>
+      <c r="C367" s="10" t="str">
+        <f>VLOOKUP(B367,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>67</v>
+      </c>
+      <c r="B368" s="10">
+        <v>1037</v>
+      </c>
+      <c r="C368" s="10" t="str">
+        <f>VLOOKUP(B368,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>238</v>
+      </c>
+      <c r="B369" s="10">
+        <v>1043</v>
+      </c>
+      <c r="C369" s="10" t="str">
+        <f>VLOOKUP(B369,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>401</v>
+      </c>
+      <c r="B370" s="10">
+        <v>1048</v>
+      </c>
+      <c r="C370" s="10" t="str">
+        <f>VLOOKUP(B370,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>245</v>
+      </c>
+      <c r="B371" s="10">
+        <v>1055</v>
+      </c>
+      <c r="C371" s="10" t="str">
+        <f>VLOOKUP(B371,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>231</v>
+      </c>
+      <c r="B372" s="10">
+        <v>1057</v>
+      </c>
+      <c r="C372" s="10" t="str">
+        <f>VLOOKUP(B372,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>53</v>
+      </c>
+      <c r="B373" s="10">
+        <v>1070</v>
+      </c>
+      <c r="C373" s="10" t="str">
+        <f>VLOOKUP(B373,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>391</v>
+      </c>
+      <c r="B374" s="10">
+        <v>1070</v>
+      </c>
+      <c r="C374" s="10" t="str">
+        <f>VLOOKUP(B374,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375" s="10">
+        <v>1071</v>
+      </c>
+      <c r="C375" s="10" t="str">
+        <f>VLOOKUP(B375,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>233</v>
+      </c>
+      <c r="B376" s="10">
+        <v>1075</v>
+      </c>
+      <c r="C376" s="10" t="str">
+        <f>VLOOKUP(B376,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377" s="10">
+        <v>1082</v>
+      </c>
+      <c r="C377" s="10" t="str">
+        <f>VLOOKUP(B377,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>423</v>
+      </c>
+      <c r="B378" s="10">
+        <v>1085</v>
+      </c>
+      <c r="C378" s="10" t="str">
+        <f>VLOOKUP(B378,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>153</v>
+      </c>
+      <c r="B379" s="10">
+        <v>1098</v>
+      </c>
+      <c r="C379" s="10" t="str">
+        <f>VLOOKUP(B379,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>162</v>
+      </c>
+      <c r="B380" s="10">
+        <v>1101</v>
+      </c>
+      <c r="C380" s="10" t="str">
+        <f>VLOOKUP(B380,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>298</v>
+      </c>
+      <c r="B381" s="10">
+        <v>1107</v>
+      </c>
+      <c r="C381" s="10" t="str">
+        <f>VLOOKUP(B381,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>347</v>
+      </c>
+      <c r="B382" s="10">
+        <v>1117</v>
+      </c>
+      <c r="C382" s="10" t="str">
+        <f>VLOOKUP(B382,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>24</v>
+      </c>
+      <c r="B383" s="10">
+        <v>1130</v>
+      </c>
+      <c r="C383" s="10" t="str">
+        <f>VLOOKUP(B383,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>405</v>
+      </c>
+      <c r="B384" s="10">
+        <v>1143</v>
+      </c>
+      <c r="C384" s="10" t="str">
+        <f>VLOOKUP(B384,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>426</v>
+      </c>
+      <c r="B385" s="10">
+        <v>1143</v>
+      </c>
+      <c r="C385" s="10" t="str">
+        <f>VLOOKUP(B385,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B386" s="10">
         <v>1154</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" s="10">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>207</v>
-      </c>
-      <c r="B202" s="10">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>208</v>
-      </c>
-      <c r="B203" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205" s="10">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>211</v>
-      </c>
-      <c r="B206" s="10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>212</v>
-      </c>
-      <c r="B207" s="10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>213</v>
-      </c>
-      <c r="B208" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>214</v>
-      </c>
-      <c r="B209" s="10">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>215</v>
-      </c>
-      <c r="B210" s="10">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>216</v>
-      </c>
-      <c r="B211" s="10">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>217</v>
-      </c>
-      <c r="B212" s="10">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>218</v>
-      </c>
-      <c r="B213" s="10">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>219</v>
-      </c>
-      <c r="B214" s="10">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>221</v>
-      </c>
-      <c r="B216" s="10">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>223</v>
-      </c>
-      <c r="B218" s="10">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>224</v>
-      </c>
-      <c r="B219" s="10">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220" s="10">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221" s="10">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223" s="10">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>229</v>
-      </c>
-      <c r="B224" s="10">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226" s="10">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227" s="10">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B228" s="10">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229" s="10">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>235</v>
-      </c>
-      <c r="B230" s="10">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
-      <c r="B231" s="10">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>237</v>
-      </c>
-      <c r="B232" s="10">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>238</v>
-      </c>
-      <c r="B233" s="10">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>239</v>
-      </c>
-      <c r="B234" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>240</v>
-      </c>
-      <c r="B235" s="10">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236" s="10">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>242</v>
-      </c>
-      <c r="B237" s="10">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>243</v>
-      </c>
-      <c r="B238" s="10">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>244</v>
-      </c>
-      <c r="B239" s="10">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>245</v>
-      </c>
-      <c r="B240" s="10">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241" s="10">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242" s="10">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243" s="10">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244" s="10">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245" s="10">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246" s="10">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247" s="10">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248" s="10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249" s="10">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250" s="10">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251" s="10">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>257</v>
-      </c>
-      <c r="B252" s="10">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253" s="10">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254" s="10">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257" s="10">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259" s="10">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260" s="10">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261" s="10">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>268</v>
-      </c>
-      <c r="B263" s="10">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>269</v>
-      </c>
-      <c r="B264" s="10">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265" s="10">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266" s="10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>272</v>
-      </c>
-      <c r="B267" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>273</v>
-      </c>
-      <c r="B268" s="10">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>274</v>
-      </c>
-      <c r="B269" s="10">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>275</v>
-      </c>
-      <c r="B270" s="10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271" s="10">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273" s="10">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274" s="10">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>281</v>
-      </c>
-      <c r="B276" s="10">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>282</v>
-      </c>
-      <c r="B277" s="10">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>283</v>
-      </c>
-      <c r="B278" s="10">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>284</v>
-      </c>
-      <c r="B279" s="10">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>285</v>
-      </c>
-      <c r="B280" s="10">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>286</v>
-      </c>
-      <c r="B281" s="10">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282" s="10">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283" s="10">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284" s="10">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>290</v>
-      </c>
-      <c r="B285" s="10">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>291</v>
-      </c>
-      <c r="B286" s="10">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287" s="10">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288" s="10">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>294</v>
-      </c>
-      <c r="B289" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>295</v>
-      </c>
-      <c r="B290" s="10">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>296</v>
-      </c>
-      <c r="B291" s="10">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>297</v>
-      </c>
-      <c r="B292" s="10">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>298</v>
-      </c>
-      <c r="B293" s="10">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294" s="10">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>300</v>
-      </c>
-      <c r="B295" s="10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>301</v>
-      </c>
-      <c r="B296" s="10">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>302</v>
-      </c>
-      <c r="B297" s="10">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>303</v>
-      </c>
-      <c r="B298" s="10">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299" s="10">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300" s="10">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>306</v>
-      </c>
-      <c r="B301" s="10">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>307</v>
-      </c>
-      <c r="B302" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>308</v>
-      </c>
-      <c r="B303" s="10">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304" s="10">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305" s="10">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306" s="10">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>312</v>
-      </c>
-      <c r="B307" s="10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>313</v>
-      </c>
-      <c r="B308" s="10">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>314</v>
-      </c>
-      <c r="B309" s="10">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>315</v>
-      </c>
-      <c r="B310" s="10">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>316</v>
-      </c>
-      <c r="B311" s="10">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>317</v>
-      </c>
-      <c r="B312" s="10">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>318</v>
-      </c>
-      <c r="B313" s="10">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314" s="10">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>320</v>
-      </c>
-      <c r="B315" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>321</v>
-      </c>
-      <c r="B316" s="10">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>322</v>
-      </c>
-      <c r="B317" s="10">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318" s="10">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>324</v>
-      </c>
-      <c r="B319" s="10">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>325</v>
-      </c>
-      <c r="B320" s="10">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>326</v>
-      </c>
-      <c r="B321" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>327</v>
-      </c>
-      <c r="B322" s="10">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>328</v>
-      </c>
-      <c r="B323" s="10">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>329</v>
-      </c>
-      <c r="B324" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>330</v>
-      </c>
-      <c r="B325" s="10">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>331</v>
-      </c>
-      <c r="B326" s="10">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>332</v>
-      </c>
-      <c r="B327" s="10">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>333</v>
-      </c>
-      <c r="B328" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>334</v>
-      </c>
-      <c r="B329" s="10">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>335</v>
-      </c>
-      <c r="B330" s="10">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>336</v>
-      </c>
-      <c r="B331" s="10">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>337</v>
-      </c>
-      <c r="B332" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>338</v>
-      </c>
-      <c r="B333" s="10">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>339</v>
-      </c>
-      <c r="B334" s="10">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>340</v>
-      </c>
-      <c r="B335" s="10">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>341</v>
-      </c>
-      <c r="B336" s="10">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>342</v>
-      </c>
-      <c r="B337" s="10">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>343</v>
-      </c>
-      <c r="B338" s="10">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>344</v>
-      </c>
-      <c r="B339" s="10">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>345</v>
-      </c>
-      <c r="B340" s="10">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>346</v>
-      </c>
-      <c r="B341" s="10">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>347</v>
-      </c>
-      <c r="B342" s="10">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>348</v>
-      </c>
-      <c r="B343" s="10">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>349</v>
-      </c>
-      <c r="B344" s="10">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>350</v>
-      </c>
-      <c r="B345" s="10">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>351</v>
-      </c>
-      <c r="B346" s="10">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>352</v>
-      </c>
-      <c r="B347" s="10">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>353</v>
-      </c>
-      <c r="B348" s="10">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>354</v>
-      </c>
-      <c r="B349" s="10">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>355</v>
-      </c>
-      <c r="B350" s="10">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>356</v>
-      </c>
-      <c r="B351" s="10">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>357</v>
-      </c>
-      <c r="B352" s="10">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>358</v>
-      </c>
-      <c r="B353" s="10">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>359</v>
-      </c>
-      <c r="B354" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>360</v>
-      </c>
-      <c r="B355" s="10">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>361</v>
-      </c>
-      <c r="B356" s="10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>362</v>
-      </c>
-      <c r="B357" s="10">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>363</v>
-      </c>
-      <c r="B358" s="10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>364</v>
-      </c>
-      <c r="B359" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>365</v>
-      </c>
-      <c r="B360" s="10">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>366</v>
-      </c>
-      <c r="B361" s="10">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>367</v>
-      </c>
-      <c r="B362" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>368</v>
-      </c>
-      <c r="B363" s="10">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>369</v>
-      </c>
-      <c r="B364" s="10">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>370</v>
-      </c>
-      <c r="B365" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>371</v>
-      </c>
-      <c r="B366" s="10">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>372</v>
-      </c>
-      <c r="B367" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>373</v>
-      </c>
-      <c r="B368" s="10">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>374</v>
-      </c>
-      <c r="B369" s="10">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>375</v>
-      </c>
-      <c r="B370" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>376</v>
-      </c>
-      <c r="B371" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>377</v>
-      </c>
-      <c r="B372" s="10">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>378</v>
-      </c>
-      <c r="B373" s="10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>379</v>
-      </c>
-      <c r="B374" s="10">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>380</v>
-      </c>
-      <c r="B375" s="10">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>381</v>
-      </c>
-      <c r="B376" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>382</v>
-      </c>
-      <c r="B377" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>383</v>
-      </c>
-      <c r="B378" s="10">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>384</v>
-      </c>
-      <c r="B379" s="10">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>385</v>
-      </c>
-      <c r="B380" s="10">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>386</v>
-      </c>
-      <c r="B381" s="10">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>387</v>
-      </c>
-      <c r="B382" s="10">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>388</v>
-      </c>
-      <c r="B383" s="10">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>389</v>
-      </c>
-      <c r="B384" s="10">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>390</v>
-      </c>
-      <c r="B385" s="10">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>391</v>
-      </c>
-      <c r="B386" s="10">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C386" s="10" t="str">
+        <f>VLOOKUP(B386,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="B387" s="10">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+      <c r="C387" s="10" t="str">
+        <f>VLOOKUP(B387,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>393</v>
+        <v>187</v>
       </c>
       <c r="B388" s="10">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+      <c r="C388" s="10" t="str">
+        <f>VLOOKUP(B388,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="B389" s="10">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+      <c r="C389" s="10" t="str">
+        <f>VLOOKUP(B389,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>395</v>
       </c>
       <c r="B390" s="10">
         <v>1164</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C390" s="10" t="str">
+        <f>VLOOKUP(B390,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="B391" s="10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+      <c r="C391" s="10" t="str">
+        <f>VLOOKUP(B391,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="B392" s="10">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+      <c r="C392" s="10" t="str">
+        <f>VLOOKUP(B392,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>105</v>
       </c>
       <c r="B393" s="10">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+      <c r="C393" s="10" t="str">
+        <f>VLOOKUP(B393,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="B394" s="10">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+      <c r="C394" s="10" t="str">
+        <f>VLOOKUP(B394,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="B395" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+      <c r="C395" s="10" t="str">
+        <f>VLOOKUP(B395,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="B396" s="10">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+      <c r="C396" s="10" t="str">
+        <f>VLOOKUP(B396,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="B397" s="10">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+      <c r="C397" s="10" t="str">
+        <f>VLOOKUP(B397,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="B398" s="10">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+      <c r="C398" s="10" t="str">
+        <f>VLOOKUP(B398,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>404</v>
+        <v>286</v>
       </c>
       <c r="B399" s="10">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+      <c r="C399" s="10" t="str">
+        <f>VLOOKUP(B399,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>405</v>
+        <v>149</v>
       </c>
       <c r="B400" s="10">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+      <c r="C400" s="10" t="str">
+        <f>VLOOKUP(B400,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="B401" s="10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+      <c r="C401" s="10" t="str">
+        <f>VLOOKUP(B401,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B402" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1292</v>
+      </c>
+      <c r="C402" s="10" t="str">
+        <f>VLOOKUP(B402,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="B403" s="10">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+      <c r="C403" s="10" t="str">
+        <f>VLOOKUP(B403,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>409</v>
       </c>
       <c r="B404" s="10">
         <v>1313</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C404" s="10" t="str">
+        <f>VLOOKUP(B404,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="B405" s="10">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+      <c r="C405" s="10" t="str">
+        <f>VLOOKUP(B405,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="B406" s="10">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+      <c r="C406" s="10" t="str">
+        <f>VLOOKUP(B406,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="B407" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+      <c r="C407" s="10" t="str">
+        <f>VLOOKUP(B407,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="B408" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1421</v>
+      </c>
+      <c r="C408" s="10" t="str">
+        <f>VLOOKUP(B408,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="B409" s="10">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+      <c r="C409" s="10" t="str">
+        <f>VLOOKUP(B409,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="B410" s="10">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1432</v>
+      </c>
+      <c r="C410" s="10" t="str">
+        <f>VLOOKUP(B410,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="B411" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1446</v>
+      </c>
+      <c r="C411" s="10" t="str">
+        <f>VLOOKUP(B411,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>417</v>
+        <v>150</v>
       </c>
       <c r="B412" s="10">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+      <c r="C412" s="10" t="str">
+        <f>VLOOKUP(B412,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="B413" s="10">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+      <c r="C413" s="10" t="str">
+        <f>VLOOKUP(B413,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>419</v>
+        <v>306</v>
       </c>
       <c r="B414" s="10">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+      <c r="C414" s="10" t="str">
+        <f>VLOOKUP(B414,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="B415" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+      <c r="C415" s="10" t="str">
+        <f>VLOOKUP(B415,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="B416" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+      <c r="C416" s="10" t="str">
+        <f>VLOOKUP(B416,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>422</v>
+        <v>33</v>
       </c>
       <c r="B417" s="10">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+      <c r="C417" s="10" t="str">
+        <f>VLOOKUP(B417,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="B418" s="10">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+      <c r="C418" s="10" t="str">
+        <f>VLOOKUP(B418,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="B419" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+      <c r="C419" s="10" t="str">
+        <f>VLOOKUP(B419,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="B420" s="10">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+      <c r="C420" s="10" t="str">
+        <f>VLOOKUP(B420,$G$6:$H$9,2,TRUE)</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="B421" s="10">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1743</v>
+      </c>
+      <c r="C421" s="10" t="str">
+        <f>VLOOKUP(B421,$G$6:$H$9,2,TRUE)</f>
+        <v>Very High</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="B422" s="10">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+      <c r="C422" s="10" t="str">
+        <f>VLOOKUP(B422,$G$6:$H$9,2,TRUE)</f>
+        <v>Very High</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="B423" s="10">
-        <v>28</v>
+        <v>2217</v>
+      </c>
+      <c r="C423" s="10" t="str">
+        <f>VLOOKUP(B423,$G$6:$H$9,2,TRUE)</f>
+        <v>Very High</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C423" xr:uid="{5E4BB21A-0D1D-4534-9E2C-198EB46BE37A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C423">
+      <sortCondition ref="B1:B423"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="38">
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>

--- a/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
+++ b/Quartiles, the IQR, and Percentiles/Workbook NBA players season 14-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Quartiles, the IQR, and Percentiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D7067-25E6-464B-AB48-EB4A16634434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D79069-9CAE-44BC-A524-999FD53140D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,19 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Classifying data'!$A$1:$C$423</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'NBA Players 14-15 season'!$F$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'NBA Players 14-15 season'!$F$2:$F$423</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'NBA Players 14-15 season'!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'NBA Players 14-15 season'!$C$2:$C$423</definedName>
@@ -81,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="501">
   <si>
     <t>Name</t>
   </si>
@@ -1524,9 +1512,6 @@
   </si>
   <si>
     <t>Lesson - Boxplots and IQR</t>
-  </si>
-  <si>
-    <t>Value's rank / Total count of vlue</t>
   </si>
   <si>
     <t>Upper outlier bound
@@ -1568,6 +1553,27 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>Low 3rd (0.33)</t>
+  </si>
+  <si>
+    <t>Top 3rd (0.66)</t>
+  </si>
+  <si>
+    <t>Low Quarter</t>
+  </si>
+  <si>
+    <t>Top Quarter</t>
+  </si>
+  <si>
+    <t>Half (0.50)</t>
+  </si>
+  <si>
+    <t>Percentile Rank</t>
+  </si>
+  <si>
+    <t>Value's rank / Total count of value</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2264,8 +2270,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2424,8 +2431,11 @@
     <xf numFmtId="0" fontId="16" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2465,6 +2475,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -15858,7 +15869,7 @@
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15">
         <f>18*1.5</f>
@@ -15867,7 +15878,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C16">
         <f>C11+C15</f>
@@ -15876,7 +15887,7 @@
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C17">
         <f>C7-C15</f>
@@ -16006,7 +16017,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16">
         <f>C14*1.5</f>
@@ -16015,7 +16026,7 @@
     </row>
     <row r="17" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17">
         <f>C12+C16</f>
@@ -16025,7 +16036,7 @@
     <row r="18" spans="2:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C19">
         <f>C8-C14</f>
@@ -16034,7 +16045,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C21">
         <f>AVERAGE('NBA Players 14-15 season'!C:C)</f>
@@ -16043,7 +16054,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C22">
         <f>MEDIAN('NBA Players 14-15 season'!C:C)</f>
@@ -16072,19 +16083,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4BB21A-0D1D-4534-9E2C-198EB46BE37A}">
   <dimension ref="A1:W423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43:W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
@@ -16100,7 +16112,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -16114,6 +16129,10 @@
         <f>VLOOKUP(B2,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D2" s="56">
+        <f>PERCENTRANK(B:B,B2)</f>
+        <v>0</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>452</v>
       </c>
@@ -16136,6 +16155,10 @@
         <f>VLOOKUP(B3,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D3" s="56">
+        <f t="shared" ref="D3:D66" si="0">PERCENTRANK(B:B,B3)</f>
+        <v>0</v>
+      </c>
       <c r="O3" s="32" t="s">
         <v>445</v>
       </c>
@@ -16159,6 +16182,10 @@
       <c r="C4" s="10" t="str">
         <f>VLOOKUP(B4,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D4" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O4" s="33"/>
       <c r="P4" s="16"/>
@@ -16182,6 +16209,10 @@
         <f>VLOOKUP(B5,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D5" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="O5" s="32" t="s">
         <v>447</v>
       </c>
@@ -16201,6 +16232,10 @@
       <c r="C6" s="10" t="str">
         <f>VLOOKUP(B6,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D6" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -16224,6 +16259,10 @@
         <f>VLOOKUP(B7,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D7" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7">
         <f>P3</f>
@@ -16255,6 +16294,10 @@
       <c r="C8" s="10" t="str">
         <f>VLOOKUP(B8,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D8" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="G8">
         <f>P5</f>
@@ -16285,15 +16328,19 @@
         <f>VLOOKUP(B9,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D9" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
+      </c>
       <c r="G9">
         <f>P9</f>
         <v>1740.5</v>
       </c>
       <c r="H9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P9" s="15">
         <f>P5+P15</f>
@@ -16312,6 +16359,10 @@
       <c r="C10" s="10" t="str">
         <f>VLOOKUP(B10,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D10" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="28"/>
@@ -16328,6 +16379,10 @@
       <c r="C11" s="10" t="str">
         <f>VLOOKUP(B11,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D11" s="56">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="O11" s="51"/>
       <c r="P11" s="28"/>
@@ -16346,8 +16401,15 @@
         <f>VLOOKUP(B12,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D12" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>467</v>
+      </c>
       <c r="O12" s="51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P12" s="15">
         <f>P3-P15</f>
@@ -16371,6 +16433,17 @@
       <c r="C13" s="10" t="str">
         <f>VLOOKUP(B13,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D13" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13">
+        <f>PERCENTILE(B:B,0.33)</f>
+        <v>227.93</v>
       </c>
       <c r="O13" s="54"/>
       <c r="P13" s="28"/>
@@ -16388,6 +16461,17 @@
         <f>VLOOKUP(B14,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D14" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>495</v>
+      </c>
+      <c r="H14">
+        <f>PERCENTILE(B:B,0.66)</f>
+        <v>656</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="16"/>
       <c r="T14" s="12"/>
@@ -16404,8 +16488,19 @@
         <f>VLOOKUP(B15,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D15" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15">
+        <f>PERCENTILE(B:B,0.5)</f>
+        <v>432</v>
+      </c>
       <c r="O15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P15">
         <f>P7*1.5</f>
@@ -16428,6 +16523,17 @@
       <c r="C16" s="10" t="str">
         <f>VLOOKUP(B16,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D16" s="56">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H16">
+        <f>PERCENTILE(B:B,0.25)</f>
+        <v>154.25</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="50"/>
@@ -16448,6 +16554,17 @@
       <c r="C17" s="10" t="str">
         <f>VLOOKUP(B17,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D17" s="56">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17">
+        <f>PERCENTILE(B:B,0.75)</f>
+        <v>788.75</v>
       </c>
       <c r="M17" s="6"/>
       <c r="R17" s="8"/>
@@ -16466,6 +16583,10 @@
         <f>VLOOKUP(B18,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D18" s="56">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -16481,6 +16602,10 @@
         <f>VLOOKUP(B19,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D19" s="56">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="R19" s="25" t="s">
         <v>474</v>
@@ -16499,6 +16624,10 @@
       <c r="C20" s="10" t="str">
         <f>VLOOKUP(B20,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D20" s="56">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="M20" s="11"/>
       <c r="R20" s="25"/>
@@ -16521,6 +16650,10 @@
         <f>VLOOKUP(B21,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D21" s="56">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
@@ -16536,6 +16669,10 @@
         <f>VLOOKUP(B22,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D22" s="56">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
+      </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -16549,6 +16686,10 @@
         <f>VLOOKUP(B23,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D23" s="56">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -16562,6 +16703,10 @@
         <f>VLOOKUP(B24,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D24" s="56">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -16574,6 +16719,10 @@
         <f>VLOOKUP(B25,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D25" s="56">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -16586,6 +16735,10 @@
         <f>VLOOKUP(B26,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D26" s="56">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -16598,6 +16751,10 @@
         <f>VLOOKUP(B27,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D27" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -16610,6 +16767,10 @@
         <f>VLOOKUP(B28,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D28" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -16621,6 +16782,10 @@
       <c r="C29" s="10" t="str">
         <f>VLOOKUP(B29,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D29" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R29" s="44" t="s">
         <v>467</v>
@@ -16641,6 +16806,10 @@
       <c r="C30" s="10" t="str">
         <f>VLOOKUP(B30,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D30" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="48"/>
@@ -16660,6 +16829,10 @@
         <f>VLOOKUP(B31,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D31" s="56">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="R31" s="34" t="s">
         <v>430</v>
       </c>
@@ -16681,6 +16854,10 @@
       <c r="C32" s="10" t="str">
         <f>VLOOKUP(B32,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D32" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="R32" s="35"/>
       <c r="S32" s="39"/>
@@ -16700,6 +16877,10 @@
         <f>VLOOKUP(B33,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D33" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="R33" s="52" t="s">
         <v>441</v>
       </c>
@@ -16721,6 +16902,10 @@
       <c r="C34" s="10" t="str">
         <f>VLOOKUP(B34,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D34" s="56">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="R34" s="53"/>
       <c r="S34" s="39"/>
@@ -16740,6 +16925,10 @@
         <f>VLOOKUP(B35,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D35" s="56">
+        <f t="shared" si="0"/>
+        <v>7.8E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -16752,6 +16941,10 @@
         <f>VLOOKUP(B36,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D36" s="56">
+        <f t="shared" si="0"/>
+        <v>7.8E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -16763,6 +16956,10 @@
       <c r="C37" s="10" t="str">
         <f>VLOOKUP(B37,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D37" s="56">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R37" s="44" t="s">
         <v>470</v>
@@ -16783,6 +16980,10 @@
       <c r="C38" s="10" t="str">
         <f>VLOOKUP(B38,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D38" s="56">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>
@@ -16802,6 +17003,10 @@
         <f>VLOOKUP(B39,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D39" s="56">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="R39" s="34" t="s">
         <v>430</v>
       </c>
@@ -16823,6 +17028,10 @@
       <c r="C40" s="10" t="str">
         <f>VLOOKUP(B40,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D40" s="56">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R40" s="35"/>
       <c r="S40" s="39"/>
@@ -16842,11 +17051,15 @@
         <f>VLOOKUP(B41,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D41" s="56">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="R41" s="42" t="s">
         <v>441</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
@@ -16863,6 +17076,10 @@
       <c r="C42" s="10" t="str">
         <f>VLOOKUP(B42,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D42" s="56">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R42" s="42"/>
       <c r="S42" s="12"/>
@@ -16882,6 +17099,10 @@
         <f>VLOOKUP(B43,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D43" s="56">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="R43" s="42"/>
       <c r="S43" s="43" t="e" cm="1">
         <f t="array" ref="S43" xml:space="preserve"> Percentile ( array , value to rank )</f>
@@ -16902,6 +17123,10 @@
       <c r="C44" s="10" t="str">
         <f>VLOOKUP(B44,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
+      </c>
+      <c r="D44" s="56">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="R44" s="42"/>
       <c r="S44" s="43"/>
@@ -16921,6 +17146,10 @@
         <f>VLOOKUP(B45,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D45" s="56">
+        <f t="shared" si="0"/>
+        <v>0.10199999999999999</v>
+      </c>
       <c r="R45" s="42"/>
       <c r="S45" s="43"/>
       <c r="T45" s="43"/>
@@ -16939,6 +17168,10 @@
         <f>VLOOKUP(B46,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D46" s="56">
+        <f t="shared" si="0"/>
+        <v>0.10199999999999999</v>
+      </c>
       <c r="R46" s="42"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43"/>
@@ -16957,6 +17190,10 @@
         <f>VLOOKUP(B47,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
+      <c r="D47" s="56">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -16969,8 +17206,12 @@
         <f>VLOOKUP(B48,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="56">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -16981,8 +17222,12 @@
         <f>VLOOKUP(B49,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="56">
+        <f t="shared" si="0"/>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -16993,8 +17238,12 @@
         <f>VLOOKUP(B50,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="56">
+        <f t="shared" si="0"/>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -17005,8 +17254,12 @@
         <f>VLOOKUP(B51,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="56">
+        <f t="shared" si="0"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -17017,8 +17270,12 @@
         <f>VLOOKUP(B52,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="56">
+        <f t="shared" si="0"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -17029,8 +17286,12 @@
         <f>VLOOKUP(B53,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="56">
+        <f t="shared" si="0"/>
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -17041,8 +17302,12 @@
         <f>VLOOKUP(B54,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="56">
+        <f t="shared" si="0"/>
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>277</v>
       </c>
@@ -17053,8 +17318,12 @@
         <f>VLOOKUP(B55,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="56">
+        <f t="shared" si="0"/>
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -17065,8 +17334,12 @@
         <f>VLOOKUP(B56,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="56">
+        <f t="shared" si="0"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -17077,8 +17350,12 @@
         <f>VLOOKUP(B57,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="56">
+        <f t="shared" si="0"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -17089,8 +17366,12 @@
         <f>VLOOKUP(B58,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>396</v>
       </c>
@@ -17101,8 +17382,12 @@
         <f>VLOOKUP(B59,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -17113,8 +17398,12 @@
         <f>VLOOKUP(B60,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -17125,8 +17414,12 @@
         <f>VLOOKUP(B61,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -17137,8 +17430,12 @@
         <f>VLOOKUP(B62,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -17149,8 +17446,12 @@
         <f>VLOOKUP(B63,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -17161,8 +17462,12 @@
         <f>VLOOKUP(B64,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>392</v>
       </c>
@@ -17173,8 +17478,12 @@
         <f>VLOOKUP(B65,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -17185,8 +17494,12 @@
         <f>VLOOKUP(B66,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="56">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -17197,8 +17510,12 @@
         <f>VLOOKUP(B67,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="56">
+        <f t="shared" ref="D67:D130" si="1">PERCENTRANK(B:B,B67)</f>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -17209,8 +17526,12 @@
         <f>VLOOKUP(B68,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="56">
+        <f t="shared" si="1"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>382</v>
       </c>
@@ -17221,8 +17542,12 @@
         <f>VLOOKUP(B69,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="56">
+        <f t="shared" si="1"/>
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>345</v>
       </c>
@@ -17233,8 +17558,12 @@
         <f>VLOOKUP(B70,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="56">
+        <f t="shared" si="1"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>224</v>
       </c>
@@ -17245,8 +17574,12 @@
         <f>VLOOKUP(B71,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -17257,8 +17590,12 @@
         <f>VLOOKUP(B72,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>312</v>
       </c>
@@ -17269,8 +17606,12 @@
         <f>VLOOKUP(B73,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -17281,8 +17622,12 @@
         <f>VLOOKUP(B74,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -17293,8 +17638,12 @@
         <f>VLOOKUP(B75,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -17305,8 +17654,12 @@
         <f>VLOOKUP(B76,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -17317,8 +17670,12 @@
         <f>VLOOKUP(B77,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>206</v>
       </c>
@@ -17329,8 +17686,12 @@
         <f>VLOOKUP(B78,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="56">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -17341,8 +17702,12 @@
         <f>VLOOKUP(B79,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="56">
+        <f t="shared" si="1"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -17353,8 +17718,12 @@
         <f>VLOOKUP(B80,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="56">
+        <f t="shared" si="1"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -17365,8 +17734,12 @@
         <f>VLOOKUP(B81,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="56">
+        <f t="shared" si="1"/>
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>209</v>
       </c>
@@ -17377,8 +17750,12 @@
         <f>VLOOKUP(B82,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="56">
+        <f t="shared" si="1"/>
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -17389,8 +17766,12 @@
         <f>VLOOKUP(B83,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="56">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>128</v>
       </c>
@@ -17401,8 +17782,12 @@
         <f>VLOOKUP(B84,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>212</v>
       </c>
@@ -17413,8 +17798,12 @@
         <f>VLOOKUP(B85,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -17425,8 +17814,12 @@
         <f>VLOOKUP(B86,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -17437,8 +17830,12 @@
         <f>VLOOKUP(B87,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="56">
+        <f t="shared" si="1"/>
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -17449,8 +17846,12 @@
         <f>VLOOKUP(B88,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="56">
+        <f t="shared" si="1"/>
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -17461,8 +17862,12 @@
         <f>VLOOKUP(B89,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="56">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>300</v>
       </c>
@@ -17473,8 +17878,12 @@
         <f>VLOOKUP(B90,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="56">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -17485,8 +17894,12 @@
         <f>VLOOKUP(B91,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="56">
+        <f t="shared" si="1"/>
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>406</v>
       </c>
@@ -17497,8 +17910,12 @@
         <f>VLOOKUP(B92,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="56">
+        <f t="shared" si="1"/>
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -17509,8 +17926,12 @@
         <f>VLOOKUP(B93,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="56">
+        <f t="shared" si="1"/>
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -17521,8 +17942,12 @@
         <f>VLOOKUP(B94,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="56">
+        <f t="shared" si="1"/>
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>363</v>
       </c>
@@ -17533,8 +17958,12 @@
         <f>VLOOKUP(B95,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="56">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -17545,8 +17974,12 @@
         <f>VLOOKUP(B96,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="56">
+        <f t="shared" si="1"/>
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -17557,8 +17990,12 @@
         <f>VLOOKUP(B97,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="56">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>211</v>
       </c>
@@ -17569,8 +18006,12 @@
         <f>VLOOKUP(B98,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="56">
+        <f t="shared" si="1"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -17581,8 +18022,12 @@
         <f>VLOOKUP(B99,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -17593,8 +18038,12 @@
         <f>VLOOKUP(B100,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>361</v>
       </c>
@@ -17605,8 +18054,12 @@
         <f>VLOOKUP(B101,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>194</v>
       </c>
@@ -17617,8 +18070,12 @@
         <f>VLOOKUP(B102,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -17629,8 +18086,12 @@
         <f>VLOOKUP(B103,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>378</v>
       </c>
@@ -17641,8 +18102,12 @@
         <f>VLOOKUP(B104,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="56">
+        <f t="shared" si="1"/>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -17653,8 +18118,12 @@
         <f>VLOOKUP(B105,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="56">
+        <f t="shared" si="1"/>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>134</v>
       </c>
@@ -17665,8 +18134,12 @@
         <f>VLOOKUP(B106,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="56">
+        <f t="shared" si="1"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>366</v>
       </c>
@@ -17677,8 +18150,12 @@
         <f>VLOOKUP(B107,$G$6:$H$9,2,TRUE)</f>
         <v>Low</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="56">
+        <f t="shared" si="1"/>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>293</v>
       </c>
@@ -17689,8 +18166,12 @@
         <f>VLOOKUP(B108,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="56">
+        <f t="shared" si="1"/>
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -17701,8 +18182,12 @@
         <f>VLOOKUP(B109,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="56">
+        <f t="shared" si="1"/>
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -17713,8 +18198,12 @@
         <f>VLOOKUP(B110,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="56">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -17725,8 +18214,12 @@
         <f>VLOOKUP(B111,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="56">
+        <f t="shared" si="1"/>
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -17737,8 +18230,12 @@
         <f>VLOOKUP(B112,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="56">
+        <f t="shared" si="1"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -17749,8 +18246,12 @@
         <f>VLOOKUP(B113,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="56">
+        <f t="shared" si="1"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -17761,8 +18262,12 @@
         <f>VLOOKUP(B114,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="56">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>404</v>
       </c>
@@ -17773,8 +18278,12 @@
         <f>VLOOKUP(B115,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="56">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>334</v>
       </c>
@@ -17785,8 +18294,12 @@
         <f>VLOOKUP(B116,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="56">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -17797,8 +18310,12 @@
         <f>VLOOKUP(B117,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="56">
+        <f t="shared" si="1"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>251</v>
       </c>
@@ -17809,8 +18326,12 @@
         <f>VLOOKUP(B118,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="56">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -17821,8 +18342,12 @@
         <f>VLOOKUP(B119,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="56">
+        <f t="shared" si="1"/>
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -17833,8 +18358,12 @@
         <f>VLOOKUP(B120,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="56">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>333</v>
       </c>
@@ -17845,8 +18374,12 @@
         <f>VLOOKUP(B121,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="56">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -17857,8 +18390,12 @@
         <f>VLOOKUP(B122,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="56">
+        <f t="shared" si="1"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -17869,8 +18406,12 @@
         <f>VLOOKUP(B123,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="56">
+        <f t="shared" si="1"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -17881,8 +18422,12 @@
         <f>VLOOKUP(B124,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="56">
+        <f t="shared" si="1"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>408</v>
       </c>
@@ -17893,8 +18438,12 @@
         <f>VLOOKUP(B125,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="56">
+        <f t="shared" si="1"/>
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -17905,8 +18454,12 @@
         <f>VLOOKUP(B126,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="56">
+        <f t="shared" si="1"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>301</v>
       </c>
@@ -17917,8 +18470,12 @@
         <f>VLOOKUP(B127,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="56">
+        <f t="shared" si="1"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>350</v>
       </c>
@@ -17929,8 +18486,12 @@
         <f>VLOOKUP(B128,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="56">
+        <f t="shared" si="1"/>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -17941,8 +18502,12 @@
         <f>VLOOKUP(B129,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="56">
+        <f t="shared" si="1"/>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -17953,8 +18518,12 @@
         <f>VLOOKUP(B130,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="56">
+        <f t="shared" si="1"/>
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -17965,8 +18534,12 @@
         <f>VLOOKUP(B131,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="56">
+        <f t="shared" ref="D131:D194" si="2">PERCENTRANK(B:B,B131)</f>
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -17977,8 +18550,12 @@
         <f>VLOOKUP(B132,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="56">
+        <f t="shared" si="2"/>
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>295</v>
       </c>
@@ -17989,8 +18566,12 @@
         <f>VLOOKUP(B133,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="56">
+        <f t="shared" si="2"/>
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -18001,8 +18582,12 @@
         <f>VLOOKUP(B134,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="56">
+        <f t="shared" si="2"/>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -18013,8 +18598,12 @@
         <f>VLOOKUP(B135,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="56">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>285</v>
       </c>
@@ -18025,8 +18614,12 @@
         <f>VLOOKUP(B136,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="56">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>228</v>
       </c>
@@ -18037,8 +18630,12 @@
         <f>VLOOKUP(B137,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="56">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>355</v>
       </c>
@@ -18049,8 +18646,12 @@
         <f>VLOOKUP(B138,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="56">
+        <f t="shared" si="2"/>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>349</v>
       </c>
@@ -18061,8 +18662,12 @@
         <f>VLOOKUP(B139,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="56">
+        <f t="shared" si="2"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -18073,8 +18678,12 @@
         <f>VLOOKUP(B140,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="56">
+        <f t="shared" si="2"/>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -18085,8 +18694,12 @@
         <f>VLOOKUP(B141,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="56">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -18097,8 +18710,12 @@
         <f>VLOOKUP(B142,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="56">
+        <f t="shared" si="2"/>
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -18109,8 +18726,12 @@
         <f>VLOOKUP(B143,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="56">
+        <f t="shared" si="2"/>
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -18121,8 +18742,12 @@
         <f>VLOOKUP(B144,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="56">
+        <f t="shared" si="2"/>
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>310</v>
       </c>
@@ -18133,8 +18758,12 @@
         <f>VLOOKUP(B145,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="56">
+        <f t="shared" si="2"/>
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>235</v>
       </c>
@@ -18145,8 +18774,12 @@
         <f>VLOOKUP(B146,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="56">
+        <f t="shared" si="2"/>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -18157,8 +18790,12 @@
         <f>VLOOKUP(B147,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="56">
+        <f t="shared" si="2"/>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -18169,8 +18806,12 @@
         <f>VLOOKUP(B148,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="56">
+        <f t="shared" si="2"/>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>335</v>
       </c>
@@ -18181,8 +18822,12 @@
         <f>VLOOKUP(B149,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="56">
+        <f t="shared" si="2"/>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>274</v>
       </c>
@@ -18193,8 +18838,12 @@
         <f>VLOOKUP(B150,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="56">
+        <f t="shared" si="2"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>269</v>
       </c>
@@ -18205,8 +18854,12 @@
         <f>VLOOKUP(B151,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="56">
+        <f t="shared" si="2"/>
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>411</v>
       </c>
@@ -18217,8 +18870,12 @@
         <f>VLOOKUP(B152,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="56">
+        <f t="shared" si="2"/>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>291</v>
       </c>
@@ -18229,8 +18886,12 @@
         <f>VLOOKUP(B153,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="56">
+        <f t="shared" si="2"/>
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -18241,8 +18902,12 @@
         <f>VLOOKUP(B154,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="56">
+        <f t="shared" si="2"/>
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>407</v>
       </c>
@@ -18253,8 +18918,12 @@
         <f>VLOOKUP(B155,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="56">
+        <f t="shared" si="2"/>
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -18265,8 +18934,12 @@
         <f>VLOOKUP(B156,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="56">
+        <f t="shared" si="2"/>
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>324</v>
       </c>
@@ -18277,8 +18950,12 @@
         <f>VLOOKUP(B157,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="56">
+        <f t="shared" si="2"/>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>373</v>
       </c>
@@ -18289,8 +18966,12 @@
         <f>VLOOKUP(B158,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="56">
+        <f t="shared" si="2"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>119</v>
       </c>
@@ -18301,8 +18982,12 @@
         <f>VLOOKUP(B159,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="56">
+        <f t="shared" si="2"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>389</v>
       </c>
@@ -18313,8 +18998,12 @@
         <f>VLOOKUP(B160,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="56">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -18325,8 +19014,12 @@
         <f>VLOOKUP(B161,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="56">
+        <f t="shared" si="2"/>
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -18337,8 +19030,12 @@
         <f>VLOOKUP(B162,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="56">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -18349,8 +19046,12 @@
         <f>VLOOKUP(B163,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="56">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>303</v>
       </c>
@@ -18361,8 +19062,12 @@
         <f>VLOOKUP(B164,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="56">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -18373,8 +19078,12 @@
         <f>VLOOKUP(B165,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="56">
+        <f t="shared" si="2"/>
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -18385,8 +19094,12 @@
         <f>VLOOKUP(B166,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="56">
+        <f t="shared" si="2"/>
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>375</v>
       </c>
@@ -18397,8 +19110,12 @@
         <f>VLOOKUP(B167,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="56">
+        <f t="shared" si="2"/>
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -18409,8 +19126,12 @@
         <f>VLOOKUP(B168,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="56">
+        <f t="shared" si="2"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>422</v>
       </c>
@@ -18421,8 +19142,12 @@
         <f>VLOOKUP(B169,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="56">
+        <f t="shared" si="2"/>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>72</v>
       </c>
@@ -18433,8 +19158,12 @@
         <f>VLOOKUP(B170,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="56">
+        <f t="shared" si="2"/>
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -18445,8 +19174,12 @@
         <f>VLOOKUP(B171,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="56">
+        <f t="shared" si="2"/>
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>264</v>
       </c>
@@ -18457,8 +19190,12 @@
         <f>VLOOKUP(B172,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="56">
+        <f t="shared" si="2"/>
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>292</v>
       </c>
@@ -18469,8 +19206,12 @@
         <f>VLOOKUP(B173,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="56">
+        <f t="shared" si="2"/>
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>314</v>
       </c>
@@ -18481,8 +19222,12 @@
         <f>VLOOKUP(B174,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="56">
+        <f t="shared" si="2"/>
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>70</v>
       </c>
@@ -18493,8 +19238,12 @@
         <f>VLOOKUP(B175,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="56">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -18505,8 +19254,12 @@
         <f>VLOOKUP(B176,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="56">
+        <f t="shared" si="2"/>
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>241</v>
       </c>
@@ -18517,8 +19270,12 @@
         <f>VLOOKUP(B177,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="56">
+        <f t="shared" si="2"/>
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -18529,8 +19286,12 @@
         <f>VLOOKUP(B178,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="56">
+        <f t="shared" si="2"/>
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>362</v>
       </c>
@@ -18541,8 +19302,12 @@
         <f>VLOOKUP(B179,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="56">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>82</v>
       </c>
@@ -18553,8 +19318,12 @@
         <f>VLOOKUP(B180,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="56">
+        <f t="shared" si="2"/>
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>94</v>
       </c>
@@ -18565,8 +19334,12 @@
         <f>VLOOKUP(B181,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="56">
+        <f t="shared" si="2"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>374</v>
       </c>
@@ -18577,8 +19350,12 @@
         <f>VLOOKUP(B182,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="56">
+        <f t="shared" si="2"/>
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -18589,8 +19366,12 @@
         <f>VLOOKUP(B183,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="56">
+        <f t="shared" si="2"/>
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>381</v>
       </c>
@@ -18601,8 +19382,12 @@
         <f>VLOOKUP(B184,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="56">
+        <f t="shared" si="2"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>327</v>
       </c>
@@ -18613,8 +19398,12 @@
         <f>VLOOKUP(B185,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="56">
+        <f t="shared" si="2"/>
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -18625,8 +19414,12 @@
         <f>VLOOKUP(B186,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="56">
+        <f t="shared" si="2"/>
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>332</v>
       </c>
@@ -18637,8 +19430,12 @@
         <f>VLOOKUP(B187,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="56">
+        <f t="shared" si="2"/>
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -18649,8 +19446,12 @@
         <f>VLOOKUP(B188,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="56">
+        <f t="shared" si="2"/>
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>246</v>
       </c>
@@ -18661,8 +19462,12 @@
         <f>VLOOKUP(B189,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="56">
+        <f t="shared" si="2"/>
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -18673,8 +19478,12 @@
         <f>VLOOKUP(B190,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="56">
+        <f t="shared" si="2"/>
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -18685,8 +19494,12 @@
         <f>VLOOKUP(B191,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="56">
+        <f t="shared" si="2"/>
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>223</v>
       </c>
@@ -18697,8 +19510,12 @@
         <f>VLOOKUP(B192,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="56">
+        <f t="shared" si="2"/>
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -18709,8 +19526,12 @@
         <f>VLOOKUP(B193,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="56">
+        <f t="shared" si="2"/>
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -18721,8 +19542,12 @@
         <f>VLOOKUP(B194,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="56">
+        <f t="shared" si="2"/>
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -18733,8 +19558,12 @@
         <f>VLOOKUP(B195,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="56">
+        <f t="shared" ref="D195:D258" si="3">PERCENTRANK(B:B,B195)</f>
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>237</v>
       </c>
@@ -18745,8 +19574,12 @@
         <f>VLOOKUP(B196,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="56">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>115</v>
       </c>
@@ -18757,8 +19590,12 @@
         <f>VLOOKUP(B197,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="56">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>95</v>
       </c>
@@ -18769,8 +19606,12 @@
         <f>VLOOKUP(B198,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="56">
+        <f t="shared" si="3"/>
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -18781,8 +19622,12 @@
         <f>VLOOKUP(B199,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="56">
+        <f t="shared" si="3"/>
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>419</v>
       </c>
@@ -18793,8 +19638,12 @@
         <f>VLOOKUP(B200,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="56">
+        <f t="shared" si="3"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>336</v>
       </c>
@@ -18805,8 +19654,12 @@
         <f>VLOOKUP(B201,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="56">
+        <f t="shared" si="3"/>
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>340</v>
       </c>
@@ -18817,8 +19670,12 @@
         <f>VLOOKUP(B202,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="56">
+        <f t="shared" si="3"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>189</v>
       </c>
@@ -18829,8 +19686,12 @@
         <f>VLOOKUP(B203,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="56">
+        <f t="shared" si="3"/>
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -18841,8 +19702,12 @@
         <f>VLOOKUP(B204,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="56">
+        <f t="shared" si="3"/>
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -18853,8 +19718,12 @@
         <f>VLOOKUP(B205,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -18865,8 +19734,12 @@
         <f>VLOOKUP(B206,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>78</v>
       </c>
@@ -18877,8 +19750,12 @@
         <f>VLOOKUP(B207,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>379</v>
       </c>
@@ -18889,8 +19766,12 @@
         <f>VLOOKUP(B208,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>390</v>
       </c>
@@ -18901,8 +19782,12 @@
         <f>VLOOKUP(B209,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="56">
+        <f t="shared" si="3"/>
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>28</v>
       </c>
@@ -18913,8 +19798,12 @@
         <f>VLOOKUP(B210,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="56">
+        <f t="shared" si="3"/>
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -18925,8 +19814,12 @@
         <f>VLOOKUP(B211,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="56">
+        <f t="shared" si="3"/>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>161</v>
       </c>
@@ -18937,8 +19830,12 @@
         <f>VLOOKUP(B212,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="56">
+        <f t="shared" si="3"/>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>348</v>
       </c>
@@ -18949,8 +19846,12 @@
         <f>VLOOKUP(B213,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="56">
+        <f t="shared" si="3"/>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>353</v>
       </c>
@@ -18961,8 +19862,12 @@
         <f>VLOOKUP(B214,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="56">
+        <f t="shared" si="3"/>
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -18973,8 +19878,12 @@
         <f>VLOOKUP(B215,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="56">
+        <f t="shared" si="3"/>
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>386</v>
       </c>
@@ -18985,8 +19894,12 @@
         <f>VLOOKUP(B216,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="56">
+        <f t="shared" si="3"/>
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>341</v>
       </c>
@@ -18997,8 +19910,12 @@
         <f>VLOOKUP(B217,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="56">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>399</v>
       </c>
@@ -19009,8 +19926,12 @@
         <f>VLOOKUP(B218,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="56">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -19021,8 +19942,12 @@
         <f>VLOOKUP(B219,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="56">
+        <f t="shared" si="3"/>
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>323</v>
       </c>
@@ -19033,8 +19958,12 @@
         <f>VLOOKUP(B220,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="56">
+        <f t="shared" si="3"/>
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>215</v>
       </c>
@@ -19045,8 +19974,12 @@
         <f>VLOOKUP(B221,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="56">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>69</v>
       </c>
@@ -19057,8 +19990,12 @@
         <f>VLOOKUP(B222,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="56">
+        <f t="shared" si="3"/>
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>65</v>
       </c>
@@ -19069,8 +20006,12 @@
         <f>VLOOKUP(B223,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="56">
+        <f t="shared" si="3"/>
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -19081,8 +20022,12 @@
         <f>VLOOKUP(B224,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="56">
+        <f t="shared" si="3"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>371</v>
       </c>
@@ -19093,8 +20038,12 @@
         <f>VLOOKUP(B225,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="56">
+        <f t="shared" si="3"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>265</v>
       </c>
@@ -19105,8 +20054,12 @@
         <f>VLOOKUP(B226,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="56">
+        <f t="shared" si="3"/>
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>210</v>
       </c>
@@ -19117,8 +20070,12 @@
         <f>VLOOKUP(B227,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="56">
+        <f t="shared" si="3"/>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>369</v>
       </c>
@@ -19129,8 +20086,12 @@
         <f>VLOOKUP(B228,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="56">
+        <f t="shared" si="3"/>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>56</v>
       </c>
@@ -19141,8 +20102,12 @@
         <f>VLOOKUP(B229,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="56">
+        <f t="shared" si="3"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>257</v>
       </c>
@@ -19153,8 +20118,12 @@
         <f>VLOOKUP(B230,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="56">
+        <f t="shared" si="3"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>201</v>
       </c>
@@ -19165,8 +20134,12 @@
         <f>VLOOKUP(B231,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="56">
+        <f t="shared" si="3"/>
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>247</v>
       </c>
@@ -19177,8 +20150,12 @@
         <f>VLOOKUP(B232,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="56">
+        <f t="shared" si="3"/>
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>160</v>
       </c>
@@ -19189,8 +20166,12 @@
         <f>VLOOKUP(B233,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="56">
+        <f t="shared" si="3"/>
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -19201,8 +20182,12 @@
         <f>VLOOKUP(B234,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="56">
+        <f t="shared" si="3"/>
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>62</v>
       </c>
@@ -19213,8 +20198,12 @@
         <f>VLOOKUP(B235,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="56">
+        <f t="shared" si="3"/>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>343</v>
       </c>
@@ -19225,8 +20214,12 @@
         <f>VLOOKUP(B236,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="56">
+        <f t="shared" si="3"/>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -19237,8 +20230,12 @@
         <f>VLOOKUP(B237,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="56">
+        <f t="shared" si="3"/>
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>368</v>
       </c>
@@ -19249,8 +20246,12 @@
         <f>VLOOKUP(B238,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="56">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>178</v>
       </c>
@@ -19261,8 +20262,12 @@
         <f>VLOOKUP(B239,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="56">
+        <f t="shared" si="3"/>
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>244</v>
       </c>
@@ -19273,8 +20278,12 @@
         <f>VLOOKUP(B240,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="56">
+        <f t="shared" si="3"/>
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>169</v>
       </c>
@@ -19285,8 +20294,12 @@
         <f>VLOOKUP(B241,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="56">
+        <f t="shared" si="3"/>
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>283</v>
       </c>
@@ -19297,8 +20310,12 @@
         <f>VLOOKUP(B242,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="56">
+        <f t="shared" si="3"/>
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>302</v>
       </c>
@@ -19309,8 +20326,12 @@
         <f>VLOOKUP(B243,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="56">
+        <f t="shared" si="3"/>
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -19321,8 +20342,12 @@
         <f>VLOOKUP(B244,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="56">
+        <f t="shared" si="3"/>
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -19333,8 +20358,12 @@
         <f>VLOOKUP(B245,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="56">
+        <f t="shared" si="3"/>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>85</v>
       </c>
@@ -19345,8 +20374,12 @@
         <f>VLOOKUP(B246,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="56">
+        <f t="shared" si="3"/>
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>383</v>
       </c>
@@ -19357,8 +20390,12 @@
         <f>VLOOKUP(B247,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="56">
+        <f t="shared" si="3"/>
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>338</v>
       </c>
@@ -19369,8 +20406,12 @@
         <f>VLOOKUP(B248,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="56">
+        <f t="shared" si="3"/>
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>397</v>
       </c>
@@ -19381,8 +20422,12 @@
         <f>VLOOKUP(B249,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="56">
+        <f t="shared" si="3"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -19393,8 +20438,12 @@
         <f>VLOOKUP(B250,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="56">
+        <f t="shared" si="3"/>
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -19405,8 +20454,12 @@
         <f>VLOOKUP(B251,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="56">
+        <f t="shared" si="3"/>
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>68</v>
       </c>
@@ -19417,8 +20470,12 @@
         <f>VLOOKUP(B252,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="56">
+        <f t="shared" si="3"/>
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>199</v>
       </c>
@@ -19429,8 +20486,12 @@
         <f>VLOOKUP(B253,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="56">
+        <f t="shared" si="3"/>
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>172</v>
       </c>
@@ -19441,8 +20502,12 @@
         <f>VLOOKUP(B254,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="56">
+        <f t="shared" si="3"/>
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>321</v>
       </c>
@@ -19453,8 +20518,12 @@
         <f>VLOOKUP(B255,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="56">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>352</v>
       </c>
@@ -19465,8 +20534,12 @@
         <f>VLOOKUP(B256,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="56">
+        <f t="shared" si="3"/>
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>402</v>
       </c>
@@ -19477,8 +20550,12 @@
         <f>VLOOKUP(B257,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="56">
+        <f t="shared" si="3"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -19489,8 +20566,12 @@
         <f>VLOOKUP(B258,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="56">
+        <f t="shared" si="3"/>
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>325</v>
       </c>
@@ -19501,8 +20582,12 @@
         <f>VLOOKUP(B259,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="56">
+        <f t="shared" ref="D259:D322" si="4">PERCENTRANK(B:B,B259)</f>
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>60</v>
       </c>
@@ -19513,8 +20598,12 @@
         <f>VLOOKUP(B260,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="56">
+        <f t="shared" si="4"/>
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>318</v>
       </c>
@@ -19525,8 +20614,12 @@
         <f>VLOOKUP(B261,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="56">
+        <f t="shared" si="4"/>
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>288</v>
       </c>
@@ -19537,8 +20630,12 @@
         <f>VLOOKUP(B262,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="56">
+        <f t="shared" si="4"/>
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>163</v>
       </c>
@@ -19549,8 +20646,12 @@
         <f>VLOOKUP(B263,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="56">
+        <f t="shared" si="4"/>
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>342</v>
       </c>
@@ -19561,8 +20662,12 @@
         <f>VLOOKUP(B264,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="56">
+        <f t="shared" si="4"/>
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>226</v>
       </c>
@@ -19573,8 +20678,12 @@
         <f>VLOOKUP(B265,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="56">
+        <f t="shared" si="4"/>
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -19585,8 +20694,12 @@
         <f>VLOOKUP(B266,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="56">
+        <f t="shared" si="4"/>
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>299</v>
       </c>
@@ -19597,8 +20710,12 @@
         <f>VLOOKUP(B267,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="56">
+        <f t="shared" si="4"/>
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>196</v>
       </c>
@@ -19609,8 +20726,12 @@
         <f>VLOOKUP(B268,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="56">
+        <f t="shared" si="4"/>
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -19621,8 +20742,12 @@
         <f>VLOOKUP(B269,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="56">
+        <f t="shared" si="4"/>
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -19633,8 +20758,12 @@
         <f>VLOOKUP(B270,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="56">
+        <f t="shared" si="4"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>427</v>
       </c>
@@ -19645,8 +20774,12 @@
         <f>VLOOKUP(B271,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="56">
+        <f t="shared" si="4"/>
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>339</v>
       </c>
@@ -19657,8 +20790,12 @@
         <f>VLOOKUP(B272,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="56">
+        <f t="shared" si="4"/>
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>166</v>
       </c>
@@ -19669,8 +20806,12 @@
         <f>VLOOKUP(B273,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="56">
+        <f t="shared" si="4"/>
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>52</v>
       </c>
@@ -19681,8 +20822,12 @@
         <f>VLOOKUP(B274,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="56">
+        <f t="shared" si="4"/>
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>75</v>
       </c>
@@ -19693,8 +20838,12 @@
         <f>VLOOKUP(B275,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="56">
+        <f t="shared" si="4"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>384</v>
       </c>
@@ -19705,8 +20854,12 @@
         <f>VLOOKUP(B276,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>122</v>
       </c>
@@ -19717,8 +20870,12 @@
         <f>VLOOKUP(B277,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>416</v>
       </c>
@@ -19729,8 +20886,12 @@
         <f>VLOOKUP(B278,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>126</v>
       </c>
@@ -19741,8 +20902,12 @@
         <f>VLOOKUP(B279,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>232</v>
       </c>
@@ -19753,8 +20918,12 @@
         <f>VLOOKUP(B280,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>271</v>
       </c>
@@ -19765,8 +20934,12 @@
         <f>VLOOKUP(B281,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="56">
+        <f t="shared" si="4"/>
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>202</v>
       </c>
@@ -19777,8 +20950,12 @@
         <f>VLOOKUP(B282,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="56">
+        <f t="shared" si="4"/>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>313</v>
       </c>
@@ -19789,8 +20966,12 @@
         <f>VLOOKUP(B283,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="56">
+        <f t="shared" si="4"/>
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>111</v>
       </c>
@@ -19801,8 +20982,12 @@
         <f>VLOOKUP(B284,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="56">
+        <f t="shared" si="4"/>
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -19813,8 +20998,12 @@
         <f>VLOOKUP(B285,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="56">
+        <f t="shared" si="4"/>
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>240</v>
       </c>
@@ -19825,8 +21014,12 @@
         <f>VLOOKUP(B286,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="56">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>358</v>
       </c>
@@ -19837,8 +21030,12 @@
         <f>VLOOKUP(B287,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="56">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>143</v>
       </c>
@@ -19849,8 +21046,12 @@
         <f>VLOOKUP(B288,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="56">
+        <f t="shared" si="4"/>
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>22</v>
       </c>
@@ -19861,8 +21062,12 @@
         <f>VLOOKUP(B289,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="56">
+        <f t="shared" si="4"/>
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>135</v>
       </c>
@@ -19873,8 +21078,12 @@
         <f>VLOOKUP(B290,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="56">
+        <f t="shared" si="4"/>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>47</v>
       </c>
@@ -19885,8 +21094,12 @@
         <f>VLOOKUP(B291,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="56">
+        <f t="shared" si="4"/>
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>218</v>
       </c>
@@ -19897,8 +21110,12 @@
         <f>VLOOKUP(B292,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="56">
+        <f t="shared" si="4"/>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>48</v>
       </c>
@@ -19909,8 +21126,12 @@
         <f>VLOOKUP(B293,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="56">
+        <f t="shared" si="4"/>
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>151</v>
       </c>
@@ -19921,8 +21142,12 @@
         <f>VLOOKUP(B294,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="56">
+        <f t="shared" si="4"/>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>289</v>
       </c>
@@ -19933,8 +21158,12 @@
         <f>VLOOKUP(B295,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="56">
+        <f t="shared" si="4"/>
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>99</v>
       </c>
@@ -19945,8 +21174,12 @@
         <f>VLOOKUP(B296,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="56">
+        <f t="shared" si="4"/>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>377</v>
       </c>
@@ -19957,8 +21190,12 @@
         <f>VLOOKUP(B297,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="56">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>127</v>
       </c>
@@ -19969,8 +21206,12 @@
         <f>VLOOKUP(B298,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="56">
+        <f t="shared" si="4"/>
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>91</v>
       </c>
@@ -19981,8 +21222,12 @@
         <f>VLOOKUP(B299,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="56">
+        <f t="shared" si="4"/>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>308</v>
       </c>
@@ -19993,8 +21238,12 @@
         <f>VLOOKUP(B300,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="56">
+        <f t="shared" si="4"/>
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>278</v>
       </c>
@@ -20005,8 +21254,12 @@
         <f>VLOOKUP(B301,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="56">
+        <f t="shared" si="4"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>309</v>
       </c>
@@ -20017,8 +21270,12 @@
         <f>VLOOKUP(B302,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="56">
+        <f t="shared" si="4"/>
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>417</v>
       </c>
@@ -20029,8 +21286,12 @@
         <f>VLOOKUP(B303,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="56">
+        <f t="shared" si="4"/>
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>273</v>
       </c>
@@ -20041,8 +21302,12 @@
         <f>VLOOKUP(B304,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="56">
+        <f t="shared" si="4"/>
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>290</v>
       </c>
@@ -20053,8 +21318,12 @@
         <f>VLOOKUP(B305,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="56">
+        <f t="shared" si="4"/>
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>108</v>
       </c>
@@ -20065,8 +21334,12 @@
         <f>VLOOKUP(B306,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="56">
+        <f t="shared" si="4"/>
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>102</v>
       </c>
@@ -20077,8 +21350,12 @@
         <f>VLOOKUP(B307,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="56">
+        <f t="shared" si="4"/>
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>179</v>
       </c>
@@ -20089,8 +21366,12 @@
         <f>VLOOKUP(B308,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="56">
+        <f t="shared" si="4"/>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>410</v>
       </c>
@@ -20101,8 +21382,12 @@
         <f>VLOOKUP(B309,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="56">
+        <f t="shared" si="4"/>
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>156</v>
       </c>
@@ -20113,8 +21398,12 @@
         <f>VLOOKUP(B310,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="56">
+        <f t="shared" si="4"/>
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>86</v>
       </c>
@@ -20125,8 +21414,12 @@
         <f>VLOOKUP(B311,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="56">
+        <f t="shared" si="4"/>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>87</v>
       </c>
@@ -20137,8 +21430,12 @@
         <f>VLOOKUP(B312,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="56">
+        <f t="shared" si="4"/>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>425</v>
       </c>
@@ -20149,8 +21446,12 @@
         <f>VLOOKUP(B313,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="56">
+        <f t="shared" si="4"/>
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>136</v>
       </c>
@@ -20161,8 +21462,12 @@
         <f>VLOOKUP(B314,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" s="56">
+        <f t="shared" si="4"/>
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>243</v>
       </c>
@@ -20173,8 +21478,12 @@
         <f>VLOOKUP(B315,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="56">
+        <f t="shared" si="4"/>
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>249</v>
       </c>
@@ -20185,8 +21494,12 @@
         <f>VLOOKUP(B316,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="56">
+        <f t="shared" si="4"/>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>394</v>
       </c>
@@ -20197,8 +21510,12 @@
         <f>VLOOKUP(B317,$G$6:$H$9,2,TRUE)</f>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="56">
+        <f t="shared" si="4"/>
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>34</v>
       </c>
@@ -20209,8 +21526,12 @@
         <f>VLOOKUP(B318,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="56">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>287</v>
       </c>
@@ -20221,8 +21542,12 @@
         <f>VLOOKUP(B319,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="56">
+        <f t="shared" si="4"/>
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>356</v>
       </c>
@@ -20233,8 +21558,12 @@
         <f>VLOOKUP(B320,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="56">
+        <f t="shared" si="4"/>
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>393</v>
       </c>
@@ -20245,8 +21574,12 @@
         <f>VLOOKUP(B321,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" s="56">
+        <f t="shared" si="4"/>
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>319</v>
       </c>
@@ -20257,8 +21590,12 @@
         <f>VLOOKUP(B322,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" s="56">
+        <f t="shared" si="4"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>388</v>
       </c>
@@ -20269,8 +21606,12 @@
         <f>VLOOKUP(B323,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" s="56">
+        <f t="shared" ref="D323:D386" si="5">PERCENTRANK(B:B,B323)</f>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>284</v>
       </c>
@@ -20281,8 +21622,12 @@
         <f>VLOOKUP(B324,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" s="56">
+        <f t="shared" si="5"/>
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>131</v>
       </c>
@@ -20293,8 +21638,12 @@
         <f>VLOOKUP(B325,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" s="56">
+        <f t="shared" si="5"/>
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>157</v>
       </c>
@@ -20305,8 +21654,12 @@
         <f>VLOOKUP(B326,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" s="56">
+        <f t="shared" si="5"/>
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>193</v>
       </c>
@@ -20317,8 +21670,12 @@
         <f>VLOOKUP(B327,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" s="56">
+        <f t="shared" si="5"/>
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>315</v>
       </c>
@@ -20329,8 +21686,12 @@
         <f>VLOOKUP(B328,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" s="56">
+        <f t="shared" si="5"/>
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>360</v>
       </c>
@@ -20341,8 +21702,12 @@
         <f>VLOOKUP(B329,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" s="56">
+        <f t="shared" si="5"/>
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>63</v>
       </c>
@@ -20353,8 +21718,12 @@
         <f>VLOOKUP(B330,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="56">
+        <f t="shared" si="5"/>
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>221</v>
       </c>
@@ -20365,8 +21734,12 @@
         <f>VLOOKUP(B331,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" s="56">
+        <f t="shared" si="5"/>
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>282</v>
       </c>
@@ -20377,8 +21750,12 @@
         <f>VLOOKUP(B332,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" s="56">
+        <f t="shared" si="5"/>
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>225</v>
       </c>
@@ -20389,8 +21766,12 @@
         <f>VLOOKUP(B333,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="56">
+        <f t="shared" si="5"/>
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>116</v>
       </c>
@@ -20401,8 +21782,12 @@
         <f>VLOOKUP(B334,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" s="56">
+        <f t="shared" si="5"/>
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>50</v>
       </c>
@@ -20413,8 +21798,12 @@
         <f>VLOOKUP(B335,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" s="56">
+        <f t="shared" si="5"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>331</v>
       </c>
@@ -20425,8 +21814,12 @@
         <f>VLOOKUP(B336,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="56">
+        <f t="shared" si="5"/>
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>107</v>
       </c>
@@ -20437,8 +21830,12 @@
         <f>VLOOKUP(B337,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" s="56">
+        <f t="shared" si="5"/>
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>144</v>
       </c>
@@ -20449,8 +21846,12 @@
         <f>VLOOKUP(B338,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="56">
+        <f t="shared" si="5"/>
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>354</v>
       </c>
@@ -20461,8 +21862,12 @@
         <f>VLOOKUP(B339,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" s="56">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>110</v>
       </c>
@@ -20473,8 +21878,12 @@
         <f>VLOOKUP(B340,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" s="56">
+        <f t="shared" si="5"/>
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>254</v>
       </c>
@@ -20485,8 +21894,12 @@
         <f>VLOOKUP(B341,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" s="56">
+        <f t="shared" si="5"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>83</v>
       </c>
@@ -20497,8 +21910,12 @@
         <f>VLOOKUP(B342,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" s="56">
+        <f t="shared" si="5"/>
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>365</v>
       </c>
@@ -20509,8 +21926,12 @@
         <f>VLOOKUP(B343,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" s="56">
+        <f t="shared" si="5"/>
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>118</v>
       </c>
@@ -20521,8 +21942,12 @@
         <f>VLOOKUP(B344,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" s="56">
+        <f t="shared" si="5"/>
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>71</v>
       </c>
@@ -20533,8 +21958,12 @@
         <f>VLOOKUP(B345,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" s="56">
+        <f t="shared" si="5"/>
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>79</v>
       </c>
@@ -20545,8 +21974,12 @@
         <f>VLOOKUP(B346,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" s="56">
+        <f t="shared" si="5"/>
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>351</v>
       </c>
@@ -20557,8 +21990,12 @@
         <f>VLOOKUP(B347,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" s="56">
+        <f t="shared" si="5"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>93</v>
       </c>
@@ -20569,8 +22006,12 @@
         <f>VLOOKUP(B348,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" s="56">
+        <f t="shared" si="5"/>
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>103</v>
       </c>
@@ -20581,8 +22022,12 @@
         <f>VLOOKUP(B349,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" s="56">
+        <f t="shared" si="5"/>
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>236</v>
       </c>
@@ -20593,8 +22038,12 @@
         <f>VLOOKUP(B350,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" s="56">
+        <f t="shared" si="5"/>
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -20605,8 +22054,12 @@
         <f>VLOOKUP(B351,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" s="56">
+        <f t="shared" si="5"/>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>418</v>
       </c>
@@ -20617,8 +22070,12 @@
         <f>VLOOKUP(B352,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" s="56">
+        <f t="shared" si="5"/>
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -20629,8 +22086,12 @@
         <f>VLOOKUP(B353,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" s="56">
+        <f t="shared" si="5"/>
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>49</v>
       </c>
@@ -20641,8 +22102,12 @@
         <f>VLOOKUP(B354,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" s="56">
+        <f t="shared" si="5"/>
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>216</v>
       </c>
@@ -20653,8 +22118,12 @@
         <f>VLOOKUP(B355,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" s="56">
+        <f t="shared" si="5"/>
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>305</v>
       </c>
@@ -20665,8 +22134,12 @@
         <f>VLOOKUP(B356,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" s="56">
+        <f t="shared" si="5"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>64</v>
       </c>
@@ -20677,8 +22150,12 @@
         <f>VLOOKUP(B357,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" s="56">
+        <f t="shared" si="5"/>
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>296</v>
       </c>
@@ -20689,8 +22166,12 @@
         <f>VLOOKUP(B358,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" s="56">
+        <f t="shared" si="5"/>
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>145</v>
       </c>
@@ -20701,8 +22182,12 @@
         <f>VLOOKUP(B359,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" s="56">
+        <f t="shared" si="5"/>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>403</v>
       </c>
@@ -20713,8 +22198,12 @@
         <f>VLOOKUP(B360,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" s="56">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>398</v>
       </c>
@@ -20725,8 +22214,12 @@
         <f>VLOOKUP(B361,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" s="56">
+        <f t="shared" si="5"/>
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>43</v>
       </c>
@@ -20737,8 +22230,12 @@
         <f>VLOOKUP(B362,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" s="56">
+        <f t="shared" si="5"/>
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>280</v>
       </c>
@@ -20749,8 +22246,12 @@
         <f>VLOOKUP(B363,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" s="56">
+        <f t="shared" si="5"/>
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>276</v>
       </c>
@@ -20761,8 +22262,12 @@
         <f>VLOOKUP(B364,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" s="56">
+        <f t="shared" si="5"/>
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>168</v>
       </c>
@@ -20773,8 +22278,12 @@
         <f>VLOOKUP(B365,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" s="56">
+        <f t="shared" si="5"/>
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>146</v>
       </c>
@@ -20785,8 +22294,12 @@
         <f>VLOOKUP(B366,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" s="56">
+        <f t="shared" si="5"/>
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>38</v>
       </c>
@@ -20797,8 +22310,12 @@
         <f>VLOOKUP(B367,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" s="56">
+        <f t="shared" si="5"/>
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>67</v>
       </c>
@@ -20809,8 +22326,12 @@
         <f>VLOOKUP(B368,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" s="56">
+        <f t="shared" si="5"/>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>238</v>
       </c>
@@ -20821,8 +22342,12 @@
         <f>VLOOKUP(B369,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" s="56">
+        <f t="shared" si="5"/>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>401</v>
       </c>
@@ -20833,8 +22358,12 @@
         <f>VLOOKUP(B370,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" s="56">
+        <f t="shared" si="5"/>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>245</v>
       </c>
@@ -20845,8 +22374,12 @@
         <f>VLOOKUP(B371,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" s="56">
+        <f t="shared" si="5"/>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>231</v>
       </c>
@@ -20857,8 +22390,12 @@
         <f>VLOOKUP(B372,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" s="56">
+        <f t="shared" si="5"/>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>53</v>
       </c>
@@ -20869,8 +22406,12 @@
         <f>VLOOKUP(B373,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" s="56">
+        <f t="shared" si="5"/>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>391</v>
       </c>
@@ -20881,8 +22422,12 @@
         <f>VLOOKUP(B374,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" s="56">
+        <f t="shared" si="5"/>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -20893,8 +22438,12 @@
         <f>VLOOKUP(B375,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" s="56">
+        <f t="shared" si="5"/>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>233</v>
       </c>
@@ -20905,8 +22454,12 @@
         <f>VLOOKUP(B376,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" s="56">
+        <f t="shared" si="5"/>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -20917,8 +22470,12 @@
         <f>VLOOKUP(B377,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" s="56">
+        <f t="shared" si="5"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>423</v>
       </c>
@@ -20929,8 +22486,12 @@
         <f>VLOOKUP(B378,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" s="56">
+        <f t="shared" si="5"/>
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -20941,8 +22502,12 @@
         <f>VLOOKUP(B379,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" s="56">
+        <f t="shared" si="5"/>
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>162</v>
       </c>
@@ -20953,8 +22518,12 @@
         <f>VLOOKUP(B380,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" s="56">
+        <f t="shared" si="5"/>
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>298</v>
       </c>
@@ -20965,8 +22534,12 @@
         <f>VLOOKUP(B381,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" s="56">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>347</v>
       </c>
@@ -20977,8 +22550,12 @@
         <f>VLOOKUP(B382,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" s="56">
+        <f t="shared" si="5"/>
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>24</v>
       </c>
@@ -20989,8 +22566,12 @@
         <f>VLOOKUP(B383,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" s="56">
+        <f t="shared" si="5"/>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>405</v>
       </c>
@@ -21001,8 +22582,12 @@
         <f>VLOOKUP(B384,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" s="56">
+        <f t="shared" si="5"/>
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>426</v>
       </c>
@@ -21013,8 +22598,12 @@
         <f>VLOOKUP(B385,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" s="56">
+        <f t="shared" si="5"/>
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>205</v>
       </c>
@@ -21025,8 +22614,12 @@
         <f>VLOOKUP(B386,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" s="56">
+        <f t="shared" si="5"/>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -21037,8 +22630,12 @@
         <f>VLOOKUP(B387,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" s="56">
+        <f t="shared" ref="D387:D423" si="6">PERCENTRANK(B:B,B387)</f>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>187</v>
       </c>
@@ -21049,8 +22646,12 @@
         <f>VLOOKUP(B388,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" s="56">
+        <f t="shared" si="6"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>129</v>
       </c>
@@ -21061,8 +22662,12 @@
         <f>VLOOKUP(B389,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" s="56">
+        <f t="shared" si="6"/>
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>395</v>
       </c>
@@ -21073,8 +22678,12 @@
         <f>VLOOKUP(B390,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" s="56">
+        <f t="shared" si="6"/>
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>186</v>
       </c>
@@ -21085,8 +22694,12 @@
         <f>VLOOKUP(B391,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" s="56">
+        <f t="shared" si="6"/>
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>109</v>
       </c>
@@ -21097,8 +22710,12 @@
         <f>VLOOKUP(B392,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" s="56">
+        <f t="shared" si="6"/>
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>105</v>
       </c>
@@ -21109,8 +22726,12 @@
         <f>VLOOKUP(B393,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" s="56">
+        <f t="shared" si="6"/>
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>330</v>
       </c>
@@ -21121,8 +22742,12 @@
         <f>VLOOKUP(B394,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" s="56">
+        <f t="shared" si="6"/>
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>242</v>
       </c>
@@ -21133,8 +22758,12 @@
         <f>VLOOKUP(B395,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" s="56">
+        <f t="shared" si="6"/>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>57</v>
       </c>
@@ -21145,8 +22774,12 @@
         <f>VLOOKUP(B396,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" s="56">
+        <f t="shared" si="6"/>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>270</v>
       </c>
@@ -21157,8 +22790,12 @@
         <f>VLOOKUP(B397,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" s="56">
+        <f t="shared" si="6"/>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>255</v>
       </c>
@@ -21169,8 +22806,12 @@
         <f>VLOOKUP(B398,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" s="56">
+        <f t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>286</v>
       </c>
@@ -21181,8 +22822,12 @@
         <f>VLOOKUP(B399,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" s="56">
+        <f t="shared" si="6"/>
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>149</v>
       </c>
@@ -21193,8 +22838,12 @@
         <f>VLOOKUP(B400,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" s="56">
+        <f t="shared" si="6"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>200</v>
       </c>
@@ -21205,8 +22854,12 @@
         <f>VLOOKUP(B401,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" s="56">
+        <f t="shared" si="6"/>
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>414</v>
       </c>
@@ -21217,8 +22870,12 @@
         <f>VLOOKUP(B402,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" s="56">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>198</v>
       </c>
@@ -21229,8 +22886,12 @@
         <f>VLOOKUP(B403,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" s="56">
+        <f t="shared" si="6"/>
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>409</v>
       </c>
@@ -21241,8 +22902,12 @@
         <f>VLOOKUP(B404,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" s="56">
+        <f t="shared" si="6"/>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -21253,8 +22918,12 @@
         <f>VLOOKUP(B405,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" s="56">
+        <f t="shared" si="6"/>
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>130</v>
       </c>
@@ -21265,8 +22934,12 @@
         <f>VLOOKUP(B406,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" s="56">
+        <f t="shared" si="6"/>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>279</v>
       </c>
@@ -21277,8 +22950,12 @@
         <f>VLOOKUP(B407,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" s="56">
+        <f t="shared" si="6"/>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>106</v>
       </c>
@@ -21289,8 +22966,12 @@
         <f>VLOOKUP(B408,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" s="56">
+        <f t="shared" si="6"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>316</v>
       </c>
@@ -21301,8 +22982,12 @@
         <f>VLOOKUP(B409,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" s="56">
+        <f t="shared" si="6"/>
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>357</v>
       </c>
@@ -21313,8 +22998,12 @@
         <f>VLOOKUP(B410,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" s="56">
+        <f t="shared" si="6"/>
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>328</v>
       </c>
@@ -21325,8 +23014,12 @@
         <f>VLOOKUP(B411,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" s="56">
+        <f t="shared" si="6"/>
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>150</v>
       </c>
@@ -21337,8 +23030,12 @@
         <f>VLOOKUP(B412,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" s="56">
+        <f t="shared" si="6"/>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>46</v>
       </c>
@@ -21349,8 +23046,12 @@
         <f>VLOOKUP(B413,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" s="56">
+        <f t="shared" si="6"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>306</v>
       </c>
@@ -21361,8 +23062,12 @@
         <f>VLOOKUP(B414,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" s="56">
+        <f t="shared" si="6"/>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>76</v>
       </c>
@@ -21373,8 +23078,12 @@
         <f>VLOOKUP(B415,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" s="56">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>258</v>
       </c>
@@ -21385,8 +23094,12 @@
         <f>VLOOKUP(B416,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" s="56">
+        <f t="shared" si="6"/>
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>33</v>
       </c>
@@ -21397,8 +23110,12 @@
         <f>VLOOKUP(B417,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" s="56">
+        <f t="shared" si="6"/>
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>259</v>
       </c>
@@ -21409,8 +23126,12 @@
         <f>VLOOKUP(B418,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" s="56">
+        <f t="shared" si="6"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>248</v>
       </c>
@@ -21421,8 +23142,12 @@
         <f>VLOOKUP(B419,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" s="56">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>89</v>
       </c>
@@ -21433,8 +23158,12 @@
         <f>VLOOKUP(B420,$G$6:$H$9,2,TRUE)</f>
         <v>High</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" s="56">
+        <f t="shared" si="6"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>266</v>
       </c>
@@ -21445,8 +23174,12 @@
         <f>VLOOKUP(B421,$G$6:$H$9,2,TRUE)</f>
         <v>Very High</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" s="56">
+        <f t="shared" si="6"/>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>380</v>
       </c>
@@ -21457,8 +23190,12 @@
         <f>VLOOKUP(B422,$G$6:$H$9,2,TRUE)</f>
         <v>Very High</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" s="56">
+        <f t="shared" si="6"/>
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>171</v>
       </c>
@@ -21468,6 +23205,10 @@
       <c r="C423" s="10" t="str">
         <f>VLOOKUP(B423,$G$6:$H$9,2,TRUE)</f>
         <v>Very High</v>
+      </c>
+      <c r="D423" s="56">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
